--- a/reference.xlsx
+++ b/reference.xlsx
@@ -8241,7 +8241,7 @@
     <t>지역,사립,사립미술관,미술관,분단,문제,역부족,앞,공공,공공미술관,관심,</t>
   </si>
   <si>
-    <t>분단 현실을 작품으로 끌어들인 극소수 작가들의 육성은 귀를 기울이게 한다</t>
+    <t>분단국가임에도 DMZ 문제를 작품 주제로 고민하는 작가가 드물 만큼 작가들은 냉혹한 이 현실을 외면하고 있다분단 현실을 작품으로 끌어들인 극소수 작가들의 육성은 귀를 기울이게 한다</t>
   </si>
   <si>
     <t>분단국가,분단국가임,임,문제,작품,주제,고민,작가,만큼,현실,외면,분단,현실,작품,극소수,작가,육성,귀,</t>
@@ -8271,25 +8271,25 @@
     <t>주제가,현대성,흡수,여기,식민지,냉전,분단,등,3,3가지,가지,시대,남북,건축,진화,문제,생각,</t>
   </si>
   <si>
-    <t>그러기 위해서는 분단질곡이 역사상 어떤 연원과 조건에서 빚어진 것인가를 알고, 과거에 어떤 분단 위험이 있었고, 그 극복방편으로는 어떤 것이 제시되었는가를 정확하게 알아야 하기 때문에 분단 과정을 상세히 설명했다</t>
+    <t>우리 민족사회가 당면한 합리적 통일 방법을 생각해 보자는 뜻에서 책을 썼다그러기 위해서는 분단질곡이 역사상 어떤 연원과 조건에서 빚어진 것인가를 알고, 과거에 어떤 분단 위험이 있었고, 그 극복방편으로는 어떤 것이 제시되었는가를 정확하게 알아야 하기 때문에 분단 과정을 상세히 설명했다</t>
   </si>
   <si>
     <t>우리,민족,민족사회,사회,당면,합리적,통일,방법,생각,뜻,책,분단,분단질곡,질곡,역,역사상,사상,연원,조건,과거,위험,극복,극복방편,방편,제시,정확,때문,과정,설명,</t>
   </si>
   <si>
-    <t>박근혜 정부는 대북 정책, 통일 문제에서 제2의 이명박 정부가 되어선 안된다</t>
+    <t>남북이 자기 중심적인 생각에서 벗어나 역지사지하고, 화해 분위기로 돌아서야 분단과 동북아 평화 문제의 해결 실마리를 찾을 수 있다박근혜 정부는 대북 정책, 통일 문제에서 제2의 이명박 정부가 되어선 안된다</t>
   </si>
   <si>
     <t>남북,자기,중심적,생각,나,역,역지사지하,지사,지하,화해,분위기,야,분단,동북아,평화,문제,해결,실마리,수,박근,박근혜,혜,정부,대북,정책,통일,문제,저,2,이명,이명박,박,</t>
   </si>
   <si>
-    <t>특히 21세기 새로운 민족사의 방향을 잡아야 할 젊은이들이 많이 읽어줬으면 좋겠다</t>
+    <t>좀더 많은 독자들이 한반도 분단의 원인과 역사를 정확하게 알았으면 하는 바람에서 되도록 쉽게 쓰려고 노력했다특히 21세기 새로운 민족사의 방향을 잡아야 할 젊은이들이 많이 읽어줬으면 좋겠다</t>
   </si>
   <si>
     <t>독자,한반도,분단,원인,역사,정확,바람,노력,21,21세기,세기,새,민족사,방향,젊은이,</t>
   </si>
   <si>
-    <t>가정교회가 주도하는 각종 통일운동이 ‘하나님’의 이름 아래 북쪽의 주체사상을 소화하고 극복해 통일조국을 이룩해야 한다</t>
+    <t>1000만 이산가족의 아픔을 치유하고 194개국 신앙의 조국으로 우뚝 서기 위해서는 분단 문제를 청산해야 한다가정교회가 주도하는 각종 통일운동이 ‘하나님’의 이름 아래 북쪽의 주체사상을 소화하고 극복해 통일조국을 이룩해야 한다</t>
   </si>
   <si>
     <t>1000,1000만,만,이산가족,아픔,치유,194,194개국,개국,신앙,조국,분단,문제,청산,가정,가정교회,교회,주도,각종,통일,통일운동,운동,하나님,의,이름,아래,북쪽,주체,주체사상,사상,소화,극복,통일조국,조국,이룩,</t>
@@ -8304,13 +8304,13 @@
     <t>수챗구멍에 내버려져 있는 통일 문제를 끄집어내기 위해 과따치고 다닐 것</t>
   </si>
   <si>
-    <t>분단 50년 만에 남과 북이 한뜻으로 일군 화해협력의 산실인 개성공단을 볼모로 한반도 평화를 위협하는 북한의 생떼는 그 어떤 이유로도 합리화될 수 없다</t>
+    <t>개성공단을 위협하는 것은 민족의 심장에 스스로 비수를 꽂는 행위와 다름없다분단 50년 만에 남과 북이 한뜻으로 일군 화해협력의 산실인 개성공단을 볼모로 한반도 평화를 위협하는 북한의 생떼는 그 어떤 이유로도 합리화될 수 없다</t>
   </si>
   <si>
     <t>개성,개성공단,공단,위협,민족,심장,비수,행위,분단,50,50년,년,만,남,북,뜻,일군,화해,화해협력,협력,산실,개성,개성공단,공단,볼모,한반도,평화,위협,북한,생떼,이유,합리화,수,</t>
   </si>
   <si>
-    <t>북한의 상황, 분단 현실 등에 대해 아이들이 직접 보고 들으며 체험학습을 하니 이해하는 것도 빠른 것 같다</t>
+    <t>생각보다 아이들 반응이 너무 좋다북한의 상황, 분단 현실 등에 대해 아이들이 직접 보고 들으며 체험학습을 하니 이해하는 것도 빠른 것 같다</t>
   </si>
   <si>
     <t>생각,아이,반응,북한,상황,분단,현실,등,아이,체험,체험학습,학습,이해,</t>
@@ -8334,7 +8334,7 @@
     <t>안팎,상황,고려,때,한반도,지속,지속가능,가능,평화,구조,정착,분단,해소,생활,생활세계,세계,녹색,동북아,지역,지역연대,연대,가지,차원,복합적,필요,</t>
   </si>
   <si>
-    <t>남북한이 분단 내셔널리즘이 아닌 열린 내셔널리즘으로 나아가야 한다</t>
+    <t>한국은 동북아시아 국가를 연결하는 허브(중심축)가 돼야 한다남북한이 분단 내셔널리즘이 아닌 열린 내셔널리즘으로 나아가야 한다</t>
   </si>
   <si>
     <t>한국,동북,동북아시아,아시아,국가,연결,허브,중심축,남북한,분단,내셔널리즘,열린,</t>
@@ -8346,7 +8346,7 @@
     <t>분단,직후,동독인,유입,상황,서독,간첩,염두,공무원,경우,철저,검증,문제,채용,</t>
   </si>
   <si>
-    <t>남북의 젊은이들이 분단 때문에 이 살벌한 곳에서 청춘을 보내고 있는 현실이 안타깝다</t>
+    <t>최근 북핵 문제로 남북 간에 갈등이 조장됐을 때 군대에 간 아들을 걱정했을 어머니들을 생각하니 가슴이 아팠다남북의 젊은이들이 분단 때문에 이 살벌한 곳에서 청춘을 보내고 있는 현실이 안타깝다</t>
   </si>
   <si>
     <t>최근,북,북핵,핵,문제,남북,간,갈등,조장,때,군대,간,아들,걱정,어머니,생각,가슴,남북,젊은이,분단,때문,살벌,곳,청춘,현실,</t>
@@ -8373,13 +8373,13 @@
     <t>평,동계,동계올림픽,올림픽,유치,과정,2,2번,번,실패,이유,경쟁,국가,한반도,분단,국가라,라,위,지,탓,</t>
   </si>
   <si>
-    <t>그의 작품은 미국문학인 동시에 ‘한국문학’으로 남아 있다</t>
+    <t>제인 정 트렌카의 소설을 읽으면 온갖 종류의 ‘분단’을 안고 살아가는 우리 자신의 일그러진 내면과 마주하게 된다그의 작품은 미국문학인 동시에 ‘한국문학’으로 남아 있다</t>
   </si>
   <si>
     <t>제인,정,트렌카,소설,종류,분단,을,우리,자신,내면,그,작품,미국,미국문학인,문학인,동시,한국,한국문학,문학,</t>
   </si>
   <si>
-    <t>경제민주화, 정치혁신, 보편적 복지, 남북통일 등 우리 사회의 핵심 의제에 대한 해법을 ‘독일모델’을 통해 모색할 수 있을 것</t>
+    <t>독일과 한국은 2차 세계대전 후 분단된 국가에서 각각 라인강의 기적, 한강의 기적을 통해 강국이 된 점, 단일민족으로 집단문화와 평등의식이 강한 점이 닮은꼴경제민주화, 정치혁신, 보편적 복지, 남북통일 등 우리 사회의 핵심 의제에 대한 해법을 ‘독일모델’을 통해 모색할 수 있을 것</t>
   </si>
   <si>
     <t>독일,한국,2,2차,차,세계,세계대전,대전,후,분단,국가,각각,라인,라인강,강,기적,한강,강국,점,단일,단일민족,민족,집단,집단문화,문화,평등,평등의식,의식,닮은꼴,</t>
@@ -8397,19 +8397,19 @@
     <t>분단,이후,60,60여,여,년,때문,남북,간,유전적,변화,영양,영양상태,상태,차이,유전자,발현,수,</t>
   </si>
   <si>
-    <t>평화도시이자 생태문화관광도시로서 철원의 새 면모를 드러내면서 세계에 평화의 메시지를 전하는 자리</t>
+    <t>강원도와 철원은 여전히 분단과 낙후된 이미지가 남아 있다평화도시이자 생태문화관광도시로서 철원의 새 면모를 드러내면서 세계에 평화의 메시지를 전하는 자리</t>
   </si>
   <si>
     <t>강원,강원도,도,철,분단,낙후,이미지,평화,평화도시이자,도시,이자,생태,생태문화관광도시,문화,관광,철,면모,세계,메시지,자리,</t>
   </si>
   <si>
-    <t>이에 대한 결과로 우리는 북핵도 막지 못했고 북한의 개혁개방도 이끌지 못했다</t>
+    <t>과거 정부의 대북 정책은 분단관리 정책이었다이에 대한 결과로 우리는 북핵도 막지 못했고 북한의 개혁개방도 이끌지 못했다</t>
   </si>
   <si>
     <t>과거,정부,대북,정책,분단,분단관리,관리,대,결과,우리,북,북핵,핵,북한,개혁,개혁개방,개방,</t>
   </si>
   <si>
-    <t>무엇보다 민·관·군·경 모두가 안보에 대한 투철한 사명감을 가지고 있기 때문이라고 생각한다</t>
+    <t>대한민국 국민들이 분단된 것을 잊고 편안하게 살아가고 있다. 대부분 불안해하거나 두려워하지 않는다무엇보다 민·관·군·경 모두가 안보에 대한 투철한 사명감을 가지고 있기 때문이라고 생각한다</t>
   </si>
   <si>
     <t>대한,대한민국,민국,국민,분단,편안,대부분,불안,무엇,민,관,군,경,모두,안보,사명감,때문,생각,</t>
@@ -8427,13 +8427,13 @@
     <t>다음,10,10년,년,분단,분단체제,체제,극복,당의,중심,노동자,민중,통일,통일경제,경제,실현,정규직,철폐,기초,기초농산물,농산물,국가,국가수매,수매,실시,사회,사회공공성,공공성,핵심,핵심정책,정책,결정,</t>
   </si>
   <si>
-    <t>자유민주주의를 수호하기 위해 낯선 땅에서 피 흘린 유엔 21개국 참전용사들의 숭고한 희생정신을 기리기 위해 보은메달을 제작해 전달키로 했다</t>
+    <t>세계 유일의 분단국가 대한민국을 남북으로 갈라놓은 151마일(248㎞) DMZ 철조망은 6·25 전쟁과 분단의 상징이자 평화의 경계선자유민주주의를 수호하기 위해 낯선 땅에서 피 흘린 유엔 21개국 참전용사들의 숭고한 희생정신을 기리기 위해 보은메달을 제작해 전달키로 했다</t>
   </si>
   <si>
     <t>세계,유일,분단,분단국가,국가,대한,대한민국,민국,남북,151,151마일,마일,248,248㎞,㎞,철조망,6,25,전쟁,상징,평화,경계선,자유,자유민주주의,민주,민주주의,주의,수호,땅,피,유엔,21,21개국,개국,참전,참전용사,용사,희생,희생정신,정신,보은,보은메달,메달,제작,전달,전달키,키,</t>
   </si>
   <si>
-    <t>이번 안보투어가 전쟁을 잊지 않는 좋은 계기가 됐다</t>
+    <t>평화캠프에 참여한 외국인 친구들과 한반도 분단에 대해 얘기를 나눴다이번 안보투어가 전쟁을 잊지 않는 좋은 계기가 됐다</t>
   </si>
   <si>
     <t>평화,평화캠프,캠프,참여,외국인,친구,한반도,분단,얘기,이번,안보,안보투어,투어,전쟁,계기,</t>
@@ -8457,19 +8457,19 @@
     <t>분단,전쟁,우리,국민,수,이념,트라,트라우마나,우,마나,안보,불안,주목,응답,</t>
   </si>
   <si>
-    <t>여기에 참여하는 것이 국민 기업인 포스코의 성격과도 잘 부합된다</t>
+    <t>분단과 평화의 경계선 상징인 DMZ 폐철조망을 녹여 평화를 상징하는 보은 메달로 만드는 것은 매우 의미 있는 일여기에 참여하는 것이 국민 기업인 포스코의 성격과도 잘 부합된다</t>
   </si>
   <si>
     <t>분단,평화,경계선,상징,폐,폐철조망,철조망,보은,메달,의미,일,여기,참여,국민,기업인,포스,포스코,코,성격,부합,</t>
   </si>
   <si>
-    <t>창비는 그 불모지를 개척하면서 특히 아동문학은 ‘아름다워야 하고 도덕과 교훈을 담아야 한다’는 통념을 깨고 아이들이 처한 현실을 반영하는 동화로 패러다임을 바꿨다</t>
+    <t>일제시대부터 시작된 아동문학의 좋은 전통이 분단을 거치며 1970년대 권위주의 정권 하에서 사장된 측면이 있었다창비는 그 불모지를 개척하면서 특히 아동문학은 ‘아름다워야 하고 도덕과 교훈을 담아야 한다’는 통념을 깨고 아이들이 처한 현실을 반영하는 동화로 패러다임을 바꿨다</t>
   </si>
   <si>
     <t>일제,일제시대,시대,시작,아동,아동문학,문학,전통,분단,1970,1970년대,년대,권위주의,정권,하,사장,측면,창,창비,비,불모지,개척,아동,아동문학,문학,도덕,교훈,통념,아이,현실,반영,동화,패러다임,</t>
   </si>
   <si>
-    <t>바쁜 학업에도 불구하고 뛰어난 연구 성과물을 만들어 낸 청소년들을 보며 평화통일에 대한 희망을 더욱 갖게 됐다</t>
+    <t>최북단 지역에 위치한 화천은 남북이 대치하는 분단의 현장이자 자연이 살아 숨쉬는 생태 평화의 도시바쁜 학업에도 불구하고 뛰어난 연구 성과물을 만들어 낸 청소년들을 보며 평화통일에 대한 희망을 더욱 갖게 됐다</t>
   </si>
   <si>
     <t>최북단,지역,위치,화천,남북,대치,분단,현장,현장이자,이자,자연,생태,평화,도시,학업,연구,성과물,청소년,평화,평화통일,통일,희망,</t>
@@ -8481,13 +8481,13 @@
     <t>육탄,육탄10용사,10,용사,희생,희생정신과,정신과,위국,위국헌신,헌신,애국심,경의,목숨,나라,위업,</t>
   </si>
   <si>
-    <t>분단체제 안에서 고통당하는 민족공동체의 운명을 심각한 위기 국면으로 몰아넣은 도발 행위</t>
+    <t>북핵 실험은 한반도와 동북아시아의 생명의 안전과 평화를 항구적으로 위협할 뿐만 아니라, 국제사회 전체의 평화적 공존을 위태롭게 하는 행위분단체제 안에서 고통당하는 민족공동체의 운명을 심각한 위기 국면으로 몰아넣은 도발 행위</t>
   </si>
   <si>
     <t>북,북핵,핵,실험,한반도,동북,동북아시아,아시아,생명,안전,평화,항구적,위협,뿐,국제,국제사회,사회,전체,평화적,공존,행위,분단,분단체제,체제,안,고통,민족,민족공동체,공동체,운명,심각,위기,국면,도발,행위,</t>
   </si>
   <si>
-    <t>(진보정당이) 분단과 전쟁을 겪은 우리 국민들이 가질 수 있는 이념적 트라우마와 안보불안을 깊이 주목하지 못하고 성실히 응답하지 못했다</t>
+    <t>진보정당은 안보불안 세력이라는 불신이 널리 퍼져 있다(진보정당이) 분단과 전쟁을 겪은 우리 국민들이 가질 수 있는 이념적 트라우마와 안보불안을 깊이 주목하지 못하고 성실히 응답하지 못했다</t>
   </si>
   <si>
     <t>진보,진보정당,정당,안보,안보불안,불안,세력,불신,진보,진보정당,정당,분단,전쟁,우리,국민,수,이념,트라,트라우마,우마,안보,안보불안,불안,주목,응답,</t>
@@ -8505,22 +8505,22 @@
     <t>한반도,통일,동북,동북아시아,아시아,지구촌,정의,평화,비전,</t>
   </si>
   <si>
-    <t>분단은 가장 큰 비극이며 이제 남북이 서로를 받아들이는 통일을 해야 할 때</t>
+    <t>일생을 통틀어 가장 관심 있는 분야는 문명교류학과 민족주의분단은 가장 큰 비극이며 이제 남북이 서로를 받아들이는 통일을 해야 할 때</t>
   </si>
   <si>
     <t>일생,관심,분야,문명,문명교류학과,교류,학과,민족주의,분단,비극,남북,서로,통일,때,</t>
   </si>
   <si>
-    <t>헐벗은 이웃을 돌보는 예수 그리스도의 사랑으로 무장할 때 하나님이 함께 하시고 68년간 분단된 남북의 평화 통일도 앞당길 수 있을 것</t>
+    <t>기독교 신앙의 핵심은 예수 그리스도의 십자가헐벗은 이웃을 돌보는 예수 그리스도의 사랑으로 무장할 때 하나님이 함께 하시고 68년간 분단된 남북의 평화 통일도 앞당길 수 있을 것</t>
   </si>
   <si>
     <t>기독교,신앙,핵심,예수,그리스,그리스도의,도의,십자가,</t>
   </si>
   <si>
-    <t>헐벗은 이웃을 돌보는 예수 그리스도의 사랑으로 무장할 때 하나님이 함께하시고 68년간 분단된 남북의 평화 통일도 앞당길 수 있을 것</t>
-  </si>
-  <si>
-    <t>(핵 무장론은) 남북 분단의 구조적 문제 때문에 반세기 동안 존재해온 주장인 만큼 정부가 여론을 잘 수렴하면 될 일</t>
+    <t>기독교 신앙의 핵심은 예수 그리스도의 십자가헐벗은 이웃을 돌보는 예수 그리스도의 사랑으로 무장할 때 하나님이 함께하시고 68년간 분단된 남북의 평화 통일도 앞당길 수 있을 것</t>
+  </si>
+  <si>
+    <t>북핵 위기가 고조된 시점에서 국제사회의 의구심에 주눅 들거나 위축될 필요가 없다(핵 무장론은) 남북 분단의 구조적 문제 때문에 반세기 동안 존재해온 주장인 만큼 정부가 여론을 잘 수렴하면 될 일</t>
   </si>
   <si>
     <t>북,북핵,핵,위기,고조,시점,국제,국제사회,사회,의구심,주눅,위축,필요,핵,무장,남북,분단,구조적,문제,때문,반세기,동안,존재,주장,만큼,정부,여론,수렴,일,</t>
@@ -8553,7 +8553,7 @@
     <t>분단국가,가톨릭,무엇,</t>
   </si>
   <si>
-    <t>남북의 평화적인 통일을 위해 러시아정교회도 기도하고 있다</t>
+    <t>남북이 분단돼 우리가 고통을 받는 데는 미국과 소련의 책임이 크다. 종교는 상극보다는 상생을 도모해야하는만큼 남북통일 문제가 나올 때 도와달라남북의 평화적인 통일을 위해 러시아정교회도 기도하고 있다</t>
   </si>
   <si>
     <t>남북,분단,우리,고통,데는,미국,소련,책임,종교,상극,상생,도모,만큼,남북통일,문제,때,남북,평화적,통일,러시아,러시아정교회,정교회,기도,</t>
@@ -8565,7 +8565,7 @@
     <t>전,영화인,코리아,분단,아픔,베를린,남,나라,이상,공감,</t>
   </si>
   <si>
-    <t>객관적인 삶의 현실은 반영하지 못하고, 단순히 정권을 교체해야 한다는 당위성만 강조함으로써 피부에 와 닿지 않았다</t>
+    <t>2013년 체제론은 백 교수가 수십 년간 주장해 온 ‘분단체제론’의 연장에 불과했다객관적인 삶의 현실은 반영하지 못하고, 단순히 정권을 교체해야 한다는 당위성만 강조함으로써 피부에 와 닿지 않았다</t>
   </si>
   <si>
     <t>2013,2013년,년,체제론,백,교수,수십,년,년간,간,주장,분단,분단체제론,의,연장,불과,객관적,삶,현실,반영,정권,교체,당,당위성,위성,강조,피부,</t>
@@ -8589,31 +8589,31 @@
     <t>자본주,모순,공산주의,충돌,가족,비정상,모습,우리,분단,현실,고통,한반도,모두,질문,영화,</t>
   </si>
   <si>
-    <t>교류와 협력은 민족의 이질화를 막는 데 큰 도움이 될 것이라고 서독 정부는 판단했다</t>
+    <t>서독 정부는 분단에 따른 이산가족의 아픔을 치유하고, 동독 치하에서 고통받는 주민들을 위해 교류와 협력을 매우 중요시했다교류와 협력은 민족의 이질화를 막는 데 큰 도움이 될 것이라고 서독 정부는 판단했다</t>
   </si>
   <si>
     <t>서독,정부,분단,이산가족,아픔,치유,동독,치하,고통,주민,교류,협력,중요시,교류,협력,민족,이질화,데,도움,서독,정부,판단,</t>
   </si>
   <si>
-    <t>내년부터는 DMZ의 가치를 높이는 사업을 더욱 활발히 펼칠 계획</t>
+    <t>DMZ가 가진 분단과 대립의 이미지를 평화와 생명의 이미지로 바꾸고자 했던 당초 목표를 충분히 달성한 것으로 평가한다내년부터는 DMZ의 가치를 높이는 사업을 더욱 활발히 펼칠 계획</t>
   </si>
   <si>
     <t>분단,대립,이미지,평화,생명,당초,목표,달성,평가,내년,가치,사업,계획,</t>
   </si>
   <si>
-    <t>일본에서 먼저 민단과 총련이 작은 통일을 이룬 뒤 남과 북이 진정으로 하나되는 큰 통일을 만들어내자</t>
+    <t>남북 분단 구조를 더 이상 유지해서는 안 되며, 반드시 통일조국을 이뤄야 한다일본에서 먼저 민단과 총련이 작은 통일을 이룬 뒤 남과 북이 진정으로 하나되는 큰 통일을 만들어내자</t>
   </si>
   <si>
     <t>남북,분단,구조,이상,유지,통일,통일조국,조국,일본,민단,총련,통일,뒤,남과,북,진정,하나,내자,</t>
   </si>
   <si>
-    <t>민단과 총련이 하나 되어 일본에서 먼저 작은 통일을 이루자. 그리고 이어 남과 북이 진정으로 하나 되는 큰 통일을 이루는데 함께 노력하자</t>
+    <t>분단구조를 더 이상 유지해서는 안되며, 반드시 통일조국을 이뤄야 한다. 그런데 통일의 시대는 이미 시작됐다민단과 총련이 하나 되어 일본에서 먼저 작은 통일을 이루자. 그리고 이어 남과 북이 진정으로 하나 되는 큰 통일을 이루는데 함께 노력하자</t>
   </si>
   <si>
     <t>분단,분단구조,구조,이상,유지,통일,통일조국,조국,데,시대,시작,민단,총련,하나,일본,통일,남,북,진정,노력,</t>
   </si>
   <si>
-    <t>국내파트 폐지는 북한에 적화혁명의 고속도로를 깔아주는 일</t>
+    <t>남북 분단 상황에서 북한이 (남한) 각계각층에 대정부 전복활동을 계속하고 있어 오히려 국내 정보활동을 강화해야 한다국내파트 폐지는 북한에 적화혁명의 고속도로를 깔아주는 일</t>
   </si>
   <si>
     <t>남북,분단,상황,북한,남한,각계,각계각층,각층,대정부,전복,전복활동,활동,계속,국내,정보,정보활동,강화,국내,국내파트,파트,폐지,북한,적화,적화혁명,혁명,고속도로,일,</t>
@@ -8625,10 +8625,10 @@
     <t>우리,야당,시절,국정원,개혁법,검토,무산,분단국가,점,등,현실,위험,위험요소,요소,때문,</t>
   </si>
   <si>
-    <t>이번 평화열차 프로그램은 전세계 기독교인들에게 한반도의 통일운동에 동참해 달라고 초대하는 것</t>
-  </si>
-  <si>
-    <t>분단을 극복하고 평화를 이룩한 독일교회의 기도를 평화열차에 싣고 유럽과 아시아를 거쳐 분단의 땅 한반도를 통과할 때, 열차가 지나가는 모든 곳에서 그리스도의 평화가 꽃처럼 피어날 것이라 믿는다</t>
+    <t>부산에서 출발해 육로로 베를린까지 이동할 수 있었다면 훨씬 좋았겠지만, 그렇지 못했다는 것이 한반도의 분단 상황을 역설적으로 설명해 주는 것이번 평화열차 프로그램은 전세계 기독교인들에게 한반도의 통일운동에 동참해 달라고 초대하는 것</t>
+  </si>
+  <si>
+    <t>우리는 통일의 현장 베를린에서 평화열차의 출발을 선언한다분단을 극복하고 평화를 이룩한 독일교회의 기도를 평화열차에 싣고 유럽과 아시아를 거쳐 분단의 땅 한반도를 통과할 때, 열차가 지나가는 모든 곳에서 그리스도의 평화가 꽃처럼 피어날 것이라 믿는다</t>
   </si>
   <si>
     <t>우리,통일,현장,베를린,평화,평화열차,열차,출발,선언,분단,극복,평화,독일,독일교회의,교,회의,기도,평화열차,열차,유럽,아시아,땅,한반도,통과,때,곳,그리스,그리스도의,도의,꽃,</t>
@@ -8640,7 +8640,7 @@
     <t>김,김금화,금화,인물,분단,현실,주목,점,개막,개막작,작,선정,</t>
   </si>
   <si>
-    <t>사료를 균형 있게 볼 수 있도록 옛 소련 자료가 향후 더 공개되길 기대한다</t>
+    <t>분단의 역사를 제대로 알아야 통일에 대비할 수 있다사료를 균형 있게 볼 수 있도록 옛 소련 자료가 향후 더 공개되길 기대한다</t>
   </si>
   <si>
     <t>분단,역사,통일,대비,수,사료,균형,수,소련,자료,향후,공개,기대,</t>
@@ -8658,37 +8658,37 @@
     <t>박근,박근혜,혜,정부,통일,통일정책,정책,국정,국정기조,기조,공식,포함,최초,</t>
   </si>
   <si>
-    <t>앞으로 한반도 신뢰프로세스를 통해 한반도에 평화를 정착시키고 남북한의 공동 발전을 이뤄나갈 수 있기를 기대한다</t>
+    <t>올해로 남북이 분단된 지 68년이 됐다. 이제는 남북한 간 불신과 대결의 시대를 넘어 평화와 통일의 새로운 한반도 시대를 열어가야 한다앞으로 한반도 신뢰프로세스를 통해 한반도에 평화를 정착시키고 남북한의 공동 발전을 이뤄나갈 수 있기를 기대한다</t>
   </si>
   <si>
     <t>올해,남북,분단,지,68,68년,년,이제,남북한,간,불신,대결,시대,평화,통일,한반도,앞,한반도,신뢰,신뢰프로세스,프로세스,평화,정착,남북한,공동,발전,수,기대,</t>
   </si>
   <si>
-    <t>그러나 지금 이 순간 역내에서 군사적 충돌의 위험성이 상존하며, 먼저 한반도의 분단이 70년 가까이 지속되는 가운데 북한은 핵 개발을 계속하며 긴장을 유발하고 있다</t>
+    <t>동북아를 EU와 같은 공동시장으로 만들 수 있다면 우리에게 엄청난 기회를 가져다줄 것그러나 지금 이 순간 역내에서 군사적 충돌의 위험성이 상존하며, 먼저 한반도의 분단이 70년 가까이 지속되는 가운데 북한은 핵 개발을 계속하며 긴장을 유발하고 있다</t>
   </si>
   <si>
     <t>순간,역내,군사적,충돌,위험성,상존,한반도,분단,70,70년,년,지속,가운데,북한,핵,개발,계속,긴장,유발,</t>
   </si>
   <si>
-    <t>분단 현장에서 적대감 고취가 아니라 평화를 되돌아보게 하는 이번 여행을 대상을 더욱 넓혀서 정례화했으면 한다</t>
+    <t>정부 지원에 의존하지 않고 자체적으로 진행할 수 있었다는 것은 평가할 만한 일분단 현장에서 적대감 고취가 아니라 평화를 되돌아보게 하는 이번 여행을 대상을 더욱 넓혀서 정례화했으면 한다</t>
   </si>
   <si>
     <t>정부,지원,의존,자체,진행,수,평가,일,분단,현장,적대감,고취,평화,이번,여행,대상,정례,</t>
   </si>
   <si>
-    <t>당사자인 남북 간 신뢰 형성이 일차적 과제이지만 적대적인 분단 체제를 유지하면서 신뢰를 회복하는 것은 불가능한 만큼 장기적으로는 평화체제 전략을 수립하고 추진해야 한다</t>
+    <t>남북 모두 상호 불신이 깊고 복잡한 이해관계를 드러내는 등 평화 논의를 위한 준비가 전혀 되어 있지 않다당사자인 남북 간 신뢰 형성이 일차적 과제이지만 적대적인 분단 체제를 유지하면서 신뢰를 회복하는 것은 불가능한 만큼 장기적으로는 평화체제 전략을 수립하고 추진해야 한다</t>
   </si>
   <si>
     <t>남북,모두,상호,불신,이해관계,등,평화,논의,준비,당사자,남북,간,신뢰,형성,일차적,과제,과제이지만,이지만,적대적,분단,체제,유지,회복,불가능,만큼,장기적,평화,평화체제,전략,수립,추진,</t>
   </si>
   <si>
-    <t>정부에 반하는 행위 때문에 사진을 누락시켰다면 3·15 부정선거를 촉발시켜 의회 정치를 말살한 이기붕 전 국회의장의 사진도 국회에서 떼어 내야 할 것</t>
+    <t>선 아니면 악이라는 이분법적 논리가 적용되는 분단 구조 속에서 최씨의 월북에 대해 자유로운 평가는 어렵다정부에 반하는 행위 때문에 사진을 누락시켰다면 3·15 부정선거를 촉발시켜 의회 정치를 말살한 이기붕 전 국회의장의 사진도 국회에서 떼어 내야 할 것</t>
   </si>
   <si>
     <t>선,악,이분법,논리,적용,분단,구조,속,최,월북,자유,평가,</t>
   </si>
   <si>
-    <t>남조선 인민들은 계급투쟁이 고조되고 갈등이 증대돼 전쟁을 할 것</t>
+    <t>전쟁을 하지 않고서 이 문제(분단)를 해결할 수 없다남조선 인민들은 계급투쟁이 고조되고 갈등이 증대돼 전쟁을 할 것</t>
   </si>
   <si>
     <t>전쟁,문제,분단,해결,수,</t>
@@ -8706,7 +8706,7 @@
     <t>한반도,주변,분단,원심력,을,극복,통일,자체,구심력,강화,방안,고민,때,</t>
   </si>
   <si>
-    <t>투철한 사명감과 남북 분단 현실에 대한 냉철한 인식을 바탕으로 국가안보를 위협하는 어떠한 시도에 대해서도 결연히 맞서겠다</t>
+    <t>자유민주적 기본 질서는 대한민국의 존립과 발전의 근간이며 정치적 입장을 초월한 헌법의 핵심가치투철한 사명감과 남북 분단 현실에 대한 냉철한 인식을 바탕으로 국가안보를 위협하는 어떠한 시도에 대해서도 결연히 맞서겠다</t>
   </si>
   <si>
     <t>자유,자유민주적,민주적,기본,질서,대한,대한민국,민국,존립,발전,근간,정치적,입장,초월,헌법,핵심,핵심가치,가치,사명감,남북,분단,현실,인식,바탕,국가,국가안보,안보,위협,시도,</t>
@@ -8718,13 +8718,13 @@
     <t>일제,시대,광복,이후,분단,시기,농구,소재,드라마,처음,의아,</t>
   </si>
   <si>
-    <t>이 책을 통해 사라지고 있는 북한 전통음식의 맛과 우수성을 알아가고, 남북이 공통된 맛과 문화를 누리고 있다는 공감대를 형성할 수 있기를 바라고, 이 책에 소개된 음식들이 일상에서 그리고 많은 한식당에서 훌륭한 일품메뉴로 활용되어 세계인의 입맛을 사로잡고, 한식세계화에도 일조할 수 있기를 기대한다</t>
+    <t>60여년 이상의 남북분단과 문화단절로 인해 사라져가는 북한의 전통음식에 대한 조사 결과물을 국민과 널리 공유하도록 이 책을 발간했다이 책을 통해 사라지고 있는 북한 전통음식의 맛과 우수성을 알아가고, 남북이 공통된 맛과 문화를 누리고 있다는 공감대를 형성할 수 있기를 바라고, 이 책에 소개된 음식들이 일상에서 그리고 많은 한식당에서 훌륭한 일품메뉴로 활용되어 세계인의 입맛을 사로잡고, 한식세계화에도 일조할 수 있기를 기대한다</t>
   </si>
   <si>
     <t>60,60여년,여,년,이상,남북,남북분단,분단,문화,문화단절,단절,북한,전통,전통음식,음식,조사,결과물,국민,공유,책,발간,책,북한,전통,전통음식,음식,맛과,우수성,남북,공통,문화,공감대,형성,수,소개,일상,한,한식당,식당,일품,일품메뉴,메뉴,활용,세계인,입맛,한식,한식세계화,세계화,일조,기대,</t>
   </si>
   <si>
-    <t>평화통일을 이루는 데 작은 보탬이 되고자 하는 마음으로 더 열심히 뛰었다</t>
+    <t>분단의 아픔이 서려 있는 특별한 곳에서 아주 특별한 레이스를 펼쳤다평화통일을 이루는 데 작은 보탬이 되고자 하는 마음으로 더 열심히 뛰었다</t>
   </si>
   <si>
     <t>분단,아픔,특별,곳,레이스,평화,평화통일,통일,데,보탬,마음,</t>
@@ -8742,13 +8742,13 @@
     <t>63,63년,년,전,한국전,투입,21,21개국,개국,참전,참전용사,용사,후손,악기,분단,상징,인근,산역,평화,노래,사실,의미,</t>
   </si>
   <si>
-    <t>대화 참가자들이 임진각을 실제로 방문해 분단의 현실을 체험한 뒤 토론을 이어가기 때문에 현실적인 논의가 진행될 예정</t>
+    <t>특히 한반도의 평화와 관련된 대화는 한국인에게 있어 가장 중요한 문제 가운데 하나대화 참가자들이 임진각을 실제로 방문해 분단의 현실을 체험한 뒤 토론을 이어가기 때문에 현실적인 논의가 진행될 예정</t>
   </si>
   <si>
     <t>한반도,평화,관련,대화,한국인,중요,문제,가운데,하나,대화,참가자,임진각,방문,분단,현실,체험,뒤,토론,때문,현,현실적,실적,논의,진행,예정,</t>
   </si>
   <si>
-    <t>이번 북한알기 토크콘서트가 한반도의 안정과 평화, 통일에 대한 관심과 의지를 확산하는 계기가 되길 바라는 마음</t>
+    <t>캠프 그리브스는 한반도 분단과 미군의 주둔 역사를 그대로 보여주는 대표적인 문화유산이번 북한알기 토크콘서트가 한반도의 안정과 평화, 통일에 대한 관심과 의지를 확산하는 계기가 되길 바라는 마음</t>
   </si>
   <si>
     <t>캠프,리브,한반도,분단,미군,주둔,역사,대표적,문화유산,이번,북한,토크,토크콘서트,콘서트,한반도,안정,평화,통일,관심,의지,확산,계기,마음,</t>
@@ -8763,7 +8763,7 @@
     <t>NLL 논란과 관련해 국민이 이제 그만 좀 하라는 요구가 있다는 것을 새누리당도 알 것</t>
   </si>
   <si>
-    <t>분단된 한반도가 언젠가 다시 통일될 것이란 꿈을 담았다</t>
+    <t>한반도의 인위적인 국경은 예부터 만화경처럼 끊임없이 바뀌어 왔지만 우리 고유의 정신은 그대로 이어져 왔다분단된 한반도가 언젠가 다시 통일될 것이란 꿈을 담았다</t>
   </si>
   <si>
     <t>한반도,인위적,국경,예,만화경,우리,고유,정신,분단,한반도,통일,꿈,</t>
@@ -8775,25 +8775,25 @@
     <t>분단,아픔,등,역사적,의미,장소,만큼,자연,자연자원,자원,후세,평화,메시지,수,공간,</t>
   </si>
   <si>
-    <t>북한을 원색적으로 찬양하는 글이 무방비로 인터넷에 게재되는 건 제한할 필요가 있다</t>
+    <t>남과 북이 분단된 현실을 고려할 때 체제전복을 도모하는 수준의 글과 영상은 청소년 등 사회 구성원들에게 많은 영향을 미칠 수 있다북한을 원색적으로 찬양하는 글이 무방비로 인터넷에 게재되는 건 제한할 필요가 있다</t>
   </si>
   <si>
     <t>남,북,분단,현실,고려,때,체제,체제전복,전복,도모,수준,글,영상,청소년,등,사회,구성원,영향,수,북한,원색,찬양,글,무방비,인터넷,게재,건,제한,필요,</t>
   </si>
   <si>
-    <t>남북 분단의 상징인 판문점 임진각 등이 있는 파주가 최적지</t>
+    <t>파주는 수도권과 가깝고 남북으로 이어지는 최상의 교통망이 있다남북 분단의 상징인 판문점 임진각 등이 있는 파주가 최적지</t>
   </si>
   <si>
     <t>파주,수도권,남북,최상,교통망,남북,분단,상징,판문점,임진각,등,파,파주가,주가,최적지,</t>
   </si>
   <si>
-    <t>북한의 자원과 기초과학기술을 남측의 풍부한 자본과 결합시킨다면 시너지가 날 것</t>
+    <t>분단과 대결은 민생과 복지를 원천적으로 가로막는다북한의 자원과 기초과학기술을 남측의 풍부한 자본과 결합시킨다면 시너지가 날 것</t>
   </si>
   <si>
     <t>분단,대결,민생,복지,원천적,</t>
   </si>
   <si>
-    <t>분단평화를 유지하는 최선의 방법은 강력한 국방력과 안보의식</t>
+    <t>북한이 핵을 개발하고 무리한 주장을 해도 평화를 위해 ‘북을 자극하지 말자’고 말한다면 올바른 통일론이 아니다분단평화를 유지하는 최선의 방법은 강력한 국방력과 안보의식</t>
   </si>
   <si>
     <t>북한,핵,개발,무리,주장,평화,북,자극,말자,고,통일론,분단,분단평화,평화,유지,최선,방법,국방력,안보,안보의식,의식,</t>
@@ -8805,7 +8805,7 @@
     <t>한국,30,30조원,조,원,세계,12,12위,위,거대,국방비,사용,군대,박근혜정부,수,분단,분단유지,유지,</t>
   </si>
   <si>
-    <t>한국교회 성도들로서는 이·팔뿐만 아니라 분단된 한반도의 참된 평화를 위한 묵상의 기회가 될 것</t>
+    <t>한국ATG는 팔레스타인과 이스라엘의 평화 증진은 물론 한국 기독교의 성서·신학적 지평을 넓히는 중요한 도구가 될 것한국교회 성도들로서는 이·팔뿐만 아니라 분단된 한반도의 참된 평화를 위한 묵상의 기회가 될 것</t>
   </si>
   <si>
     <t>그런 논쟁적인 부분이 어쩌면 매일 복잡하고 어려운 문제에 직면하는 현대 사회와 많이 닮아 있다고 생각했다</t>

--- a/reference.xlsx
+++ b/reference.xlsx
@@ -37213,7 +37213,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A2:C902"/>
+  <dimension ref="A2:C911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37248,6 +37248,9 @@
         <v>2739</v>
       </c>
     </row>
+    <row hidden="1" r="4" s="1" spans="1:3">
+      <c r="A4" t="s"/>
+    </row>
     <row r="5" s="1" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
@@ -37259,6 +37262,15 @@
         <v>2741</v>
       </c>
     </row>
+    <row hidden="1" r="6" s="1" spans="1:3">
+      <c r="A6" t="s"/>
+    </row>
+    <row hidden="1" r="7" s="1" spans="1:3">
+      <c r="A7" t="s"/>
+    </row>
+    <row hidden="1" r="8" s="1" spans="1:3">
+      <c r="A8" t="s"/>
+    </row>
     <row r="9" s="1" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
@@ -37270,6 +37282,12 @@
         <v>2743</v>
       </c>
     </row>
+    <row hidden="1" r="10" s="1" spans="1:3">
+      <c r="A10" t="s"/>
+    </row>
+    <row hidden="1" r="11" s="1" spans="1:3">
+      <c r="A11" t="s"/>
+    </row>
     <row r="12" s="1" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
@@ -37281,6 +37299,39 @@
         <v>2745</v>
       </c>
     </row>
+    <row hidden="1" r="13" s="1" spans="1:3">
+      <c r="A13" t="s"/>
+    </row>
+    <row hidden="1" r="14" s="1" spans="1:3">
+      <c r="A14" t="s"/>
+    </row>
+    <row hidden="1" r="15" s="1" spans="1:3">
+      <c r="A15" t="s"/>
+    </row>
+    <row hidden="1" r="16" s="1" spans="1:3">
+      <c r="A16" t="s"/>
+    </row>
+    <row hidden="1" r="17" s="1" spans="1:3">
+      <c r="A17" t="s"/>
+    </row>
+    <row hidden="1" r="18" s="1" spans="1:3">
+      <c r="A18" t="s"/>
+    </row>
+    <row hidden="1" r="19" s="1" spans="1:3">
+      <c r="A19" t="s"/>
+    </row>
+    <row hidden="1" r="20" s="1" spans="1:3">
+      <c r="A20" t="s"/>
+    </row>
+    <row hidden="1" r="21" s="1" spans="1:3">
+      <c r="A21" t="s"/>
+    </row>
+    <row hidden="1" r="22" s="1" spans="1:3">
+      <c r="A22" t="s"/>
+    </row>
+    <row hidden="1" r="23" s="1" spans="1:3">
+      <c r="A23" t="s"/>
+    </row>
     <row r="24" s="1" spans="1:3">
       <c r="A24" t="s">
         <v>43</v>
@@ -37303,6 +37354,15 @@
         <v>2747</v>
       </c>
     </row>
+    <row hidden="1" r="26" s="1" spans="1:3">
+      <c r="A26" t="s"/>
+    </row>
+    <row hidden="1" r="27" s="1" spans="1:3">
+      <c r="A27" t="s"/>
+    </row>
+    <row hidden="1" r="28" s="1" spans="1:3">
+      <c r="A28" t="s"/>
+    </row>
     <row r="29" s="1" spans="1:3">
       <c r="A29" t="s">
         <v>54</v>
@@ -37336,6 +37396,12 @@
         <v>2753</v>
       </c>
     </row>
+    <row hidden="1" r="32" s="1" spans="1:3">
+      <c r="A32" t="s"/>
+    </row>
+    <row hidden="1" r="33" s="1" spans="1:3">
+      <c r="A33" t="s"/>
+    </row>
     <row r="34" s="1" spans="1:3">
       <c r="A34" t="s">
         <v>57</v>
@@ -37347,6 +37413,21 @@
         <v>2755</v>
       </c>
     </row>
+    <row hidden="1" r="35" s="1" spans="1:3">
+      <c r="A35" t="s"/>
+    </row>
+    <row hidden="1" r="36" s="1" spans="1:3">
+      <c r="A36" t="s"/>
+    </row>
+    <row hidden="1" r="37" s="1" spans="1:3">
+      <c r="A37" t="s"/>
+    </row>
+    <row hidden="1" r="38" s="1" spans="1:3">
+      <c r="A38" t="s"/>
+    </row>
+    <row hidden="1" r="39" s="1" spans="1:3">
+      <c r="A39" t="s"/>
+    </row>
     <row r="40" s="1" spans="1:3">
       <c r="A40" t="s">
         <v>73</v>
@@ -37358,6 +37439,12 @@
         <v>2757</v>
       </c>
     </row>
+    <row hidden="1" r="41" s="1" spans="1:3">
+      <c r="A41" t="s"/>
+    </row>
+    <row hidden="1" r="42" s="1" spans="1:3">
+      <c r="A42" t="s"/>
+    </row>
     <row r="43" s="1" spans="1:3">
       <c r="A43" t="s">
         <v>80</v>
@@ -37369,6 +37456,12 @@
         <v>2759</v>
       </c>
     </row>
+    <row hidden="1" r="44" s="1" spans="1:3">
+      <c r="A44" t="s"/>
+    </row>
+    <row hidden="1" r="45" s="1" spans="1:3">
+      <c r="A45" t="s"/>
+    </row>
     <row r="46" s="1" spans="1:3">
       <c r="A46" t="s">
         <v>86</v>
@@ -37378,6 +37471,18 @@
       </c>
       <c r="C46" t="s"/>
     </row>
+    <row hidden="1" r="47" s="1" spans="1:3">
+      <c r="A47" t="s"/>
+    </row>
+    <row hidden="1" r="48" s="1" spans="1:3">
+      <c r="A48" t="s"/>
+    </row>
+    <row hidden="1" r="49" s="1" spans="1:3">
+      <c r="A49" t="s"/>
+    </row>
+    <row hidden="1" r="50" s="1" spans="1:3">
+      <c r="A50" t="s"/>
+    </row>
     <row r="51" s="1" spans="1:3">
       <c r="A51" t="s">
         <v>98</v>
@@ -37389,6 +37494,15 @@
         <v>2762</v>
       </c>
     </row>
+    <row hidden="1" r="52" s="1" spans="1:3">
+      <c r="A52" t="s"/>
+    </row>
+    <row hidden="1" r="53" s="1" spans="1:3">
+      <c r="A53" t="s"/>
+    </row>
+    <row hidden="1" r="54" s="1" spans="1:3">
+      <c r="A54" t="s"/>
+    </row>
     <row r="55" s="1" spans="1:3">
       <c r="A55" t="s">
         <v>105</v>
@@ -37411,6 +37525,9 @@
         <v>2766</v>
       </c>
     </row>
+    <row hidden="1" r="57" s="1" spans="1:3">
+      <c r="A57" t="s"/>
+    </row>
     <row r="58" s="1" spans="1:3">
       <c r="A58" t="s">
         <v>105</v>
@@ -37433,6 +37550,9 @@
         <v>2766</v>
       </c>
     </row>
+    <row hidden="1" r="60" s="1" spans="1:3">
+      <c r="A60" t="s"/>
+    </row>
     <row r="61" s="1" spans="1:3">
       <c r="A61" t="s">
         <v>105</v>
@@ -37455,6 +37575,18 @@
         <v>2766</v>
       </c>
     </row>
+    <row hidden="1" r="63" s="1" spans="1:3">
+      <c r="A63" t="s"/>
+    </row>
+    <row hidden="1" r="64" s="1" spans="1:3">
+      <c r="A64" t="s"/>
+    </row>
+    <row hidden="1" r="65" s="1" spans="1:3">
+      <c r="A65" t="s"/>
+    </row>
+    <row hidden="1" r="66" s="1" spans="1:3">
+      <c r="A66" t="s"/>
+    </row>
     <row r="67" s="1" spans="1:3">
       <c r="A67" t="s">
         <v>117</v>
@@ -37477,6 +37609,15 @@
         <v>2770</v>
       </c>
     </row>
+    <row hidden="1" r="69" s="1" spans="1:3">
+      <c r="A69" t="s"/>
+    </row>
+    <row hidden="1" r="70" s="1" spans="1:3">
+      <c r="A70" t="s"/>
+    </row>
+    <row hidden="1" r="71" s="1" spans="1:3">
+      <c r="A71" t="s"/>
+    </row>
     <row r="72" s="1" spans="1:3">
       <c r="A72" t="s">
         <v>130</v>
@@ -37488,6 +37629,45 @@
         <v>2772</v>
       </c>
     </row>
+    <row hidden="1" r="73" s="1" spans="1:3">
+      <c r="A73" t="s"/>
+    </row>
+    <row hidden="1" r="74" s="1" spans="1:3">
+      <c r="A74" t="s"/>
+    </row>
+    <row hidden="1" r="75" s="1" spans="1:3">
+      <c r="A75" t="s"/>
+    </row>
+    <row hidden="1" r="76" s="1" spans="1:3">
+      <c r="A76" t="s"/>
+    </row>
+    <row hidden="1" r="77" s="1" spans="1:3">
+      <c r="A77" t="s"/>
+    </row>
+    <row hidden="1" r="78" s="1" spans="1:3">
+      <c r="A78" t="s"/>
+    </row>
+    <row hidden="1" r="79" s="1" spans="1:3">
+      <c r="A79" t="s"/>
+    </row>
+    <row hidden="1" r="80" s="1" spans="1:3">
+      <c r="A80" t="s"/>
+    </row>
+    <row hidden="1" r="81" s="1" spans="1:3">
+      <c r="A81" t="s"/>
+    </row>
+    <row hidden="1" r="82" s="1" spans="1:3">
+      <c r="A82" t="s"/>
+    </row>
+    <row hidden="1" r="83" s="1" spans="1:3">
+      <c r="A83" t="s"/>
+    </row>
+    <row hidden="1" r="84" s="1" spans="1:3">
+      <c r="A84" t="s"/>
+    </row>
+    <row hidden="1" r="85" s="1" spans="1:3">
+      <c r="A85" t="s"/>
+    </row>
     <row r="86" s="1" spans="1:3">
       <c r="A86" t="s">
         <v>156</v>
@@ -37510,6 +37690,75 @@
         <v>2776</v>
       </c>
     </row>
+    <row hidden="1" r="88" s="1" spans="1:3">
+      <c r="A88" t="s"/>
+    </row>
+    <row hidden="1" r="89" s="1" spans="1:3">
+      <c r="A89" t="s"/>
+    </row>
+    <row hidden="1" r="90" s="1" spans="1:3">
+      <c r="A90" t="s"/>
+    </row>
+    <row hidden="1" r="91" s="1" spans="1:3">
+      <c r="A91" t="s"/>
+    </row>
+    <row hidden="1" r="92" s="1" spans="1:3">
+      <c r="A92" t="s"/>
+    </row>
+    <row hidden="1" r="93" s="1" spans="1:3">
+      <c r="A93" t="s"/>
+    </row>
+    <row hidden="1" r="94" s="1" spans="1:3">
+      <c r="A94" t="s"/>
+    </row>
+    <row hidden="1" r="95" s="1" spans="1:3">
+      <c r="A95" t="s"/>
+    </row>
+    <row hidden="1" r="96" s="1" spans="1:3">
+      <c r="A96" t="s"/>
+    </row>
+    <row hidden="1" r="97" s="1" spans="1:3">
+      <c r="A97" t="s"/>
+    </row>
+    <row hidden="1" r="98" s="1" spans="1:3">
+      <c r="A98" t="s"/>
+    </row>
+    <row hidden="1" r="99" s="1" spans="1:3">
+      <c r="A99" t="s"/>
+    </row>
+    <row hidden="1" r="100" s="1" spans="1:3">
+      <c r="A100" t="s"/>
+    </row>
+    <row hidden="1" r="101" s="1" spans="1:3">
+      <c r="A101" t="s"/>
+    </row>
+    <row hidden="1" r="102" s="1" spans="1:3">
+      <c r="A102" t="s"/>
+    </row>
+    <row hidden="1" r="103" s="1" spans="1:3">
+      <c r="A103" t="s"/>
+    </row>
+    <row hidden="1" r="104" s="1" spans="1:3">
+      <c r="A104" t="s"/>
+    </row>
+    <row hidden="1" r="105" s="1" spans="1:3">
+      <c r="A105" t="s"/>
+    </row>
+    <row hidden="1" r="106" s="1" spans="1:3">
+      <c r="A106" t="s"/>
+    </row>
+    <row hidden="1" r="107" s="1" spans="1:3">
+      <c r="A107" t="s"/>
+    </row>
+    <row hidden="1" r="108" s="1" spans="1:3">
+      <c r="A108" t="s"/>
+    </row>
+    <row hidden="1" r="109" s="1" spans="1:3">
+      <c r="A109" t="s"/>
+    </row>
+    <row hidden="1" r="110" s="1" spans="1:3">
+      <c r="A110" t="s"/>
+    </row>
     <row r="111" s="1" spans="1:3">
       <c r="A111" t="s">
         <v>192</v>
@@ -37521,6 +37770,24 @@
         <v>2778</v>
       </c>
     </row>
+    <row hidden="1" r="112" s="1" spans="1:3">
+      <c r="A112" t="s"/>
+    </row>
+    <row hidden="1" r="113" s="1" spans="1:3">
+      <c r="A113" t="s"/>
+    </row>
+    <row hidden="1" r="114" s="1" spans="1:3">
+      <c r="A114" t="s"/>
+    </row>
+    <row hidden="1" r="115" s="1" spans="1:3">
+      <c r="A115" t="s"/>
+    </row>
+    <row hidden="1" r="116" s="1" spans="1:3">
+      <c r="A116" t="s"/>
+    </row>
+    <row hidden="1" r="117" s="1" spans="1:3">
+      <c r="A117" t="s"/>
+    </row>
     <row r="118" s="1" spans="1:3">
       <c r="A118" t="s">
         <v>217</v>
@@ -37530,6 +37797,15 @@
       </c>
       <c r="C118" t="s"/>
     </row>
+    <row hidden="1" r="119" s="1" spans="1:3">
+      <c r="A119" t="s"/>
+    </row>
+    <row hidden="1" r="120" s="1" spans="1:3">
+      <c r="A120" t="s"/>
+    </row>
+    <row hidden="1" r="121" s="1" spans="1:3">
+      <c r="A121" t="s"/>
+    </row>
     <row r="122" s="1" spans="1:3">
       <c r="A122" t="s">
         <v>225</v>
@@ -37552,6 +37828,9 @@
         <v>2783</v>
       </c>
     </row>
+    <row hidden="1" r="124" s="1" spans="1:3">
+      <c r="A124" t="s"/>
+    </row>
     <row r="125" s="1" spans="1:3">
       <c r="A125" t="s">
         <v>228</v>
@@ -37563,6 +37842,48 @@
         <v>2783</v>
       </c>
     </row>
+    <row hidden="1" r="126" s="1" spans="1:3">
+      <c r="A126" t="s"/>
+    </row>
+    <row hidden="1" r="127" s="1" spans="1:3">
+      <c r="A127" t="s"/>
+    </row>
+    <row hidden="1" r="128" s="1" spans="1:3">
+      <c r="A128" t="s"/>
+    </row>
+    <row hidden="1" r="129" s="1" spans="1:3">
+      <c r="A129" t="s"/>
+    </row>
+    <row hidden="1" r="130" s="1" spans="1:3">
+      <c r="A130" t="s"/>
+    </row>
+    <row hidden="1" r="131" s="1" spans="1:3">
+      <c r="A131" t="s"/>
+    </row>
+    <row hidden="1" r="132" s="1" spans="1:3">
+      <c r="A132" t="s"/>
+    </row>
+    <row hidden="1" r="133" s="1" spans="1:3">
+      <c r="A133" t="s"/>
+    </row>
+    <row hidden="1" r="134" s="1" spans="1:3">
+      <c r="A134" t="s"/>
+    </row>
+    <row hidden="1" r="135" s="1" spans="1:3">
+      <c r="A135" t="s"/>
+    </row>
+    <row hidden="1" r="136" s="1" spans="1:3">
+      <c r="A136" t="s"/>
+    </row>
+    <row hidden="1" r="137" s="1" spans="1:3">
+      <c r="A137" t="s"/>
+    </row>
+    <row hidden="1" r="138" s="1" spans="1:3">
+      <c r="A138" t="s"/>
+    </row>
+    <row hidden="1" r="139" s="1" spans="1:3">
+      <c r="A139" t="s"/>
+    </row>
     <row r="140" s="1" spans="1:3">
       <c r="A140" t="s">
         <v>248</v>
@@ -37574,6 +37895,12 @@
         <v>2785</v>
       </c>
     </row>
+    <row hidden="1" r="141" s="1" spans="1:3">
+      <c r="A141" t="s"/>
+    </row>
+    <row hidden="1" r="142" s="1" spans="1:3">
+      <c r="A142" t="s"/>
+    </row>
     <row r="143" s="1" spans="1:3">
       <c r="A143" t="s">
         <v>254</v>
@@ -37585,6 +37912,81 @@
         <v>2787</v>
       </c>
     </row>
+    <row hidden="1" r="144" s="1" spans="1:3">
+      <c r="A144" t="s"/>
+    </row>
+    <row hidden="1" r="145" s="1" spans="1:3">
+      <c r="A145" t="s"/>
+    </row>
+    <row hidden="1" r="146" s="1" spans="1:3">
+      <c r="A146" t="s"/>
+    </row>
+    <row hidden="1" r="147" s="1" spans="1:3">
+      <c r="A147" t="s"/>
+    </row>
+    <row hidden="1" r="148" s="1" spans="1:3">
+      <c r="A148" t="s"/>
+    </row>
+    <row hidden="1" r="149" s="1" spans="1:3">
+      <c r="A149" t="s"/>
+    </row>
+    <row hidden="1" r="150" s="1" spans="1:3">
+      <c r="A150" t="s"/>
+    </row>
+    <row hidden="1" r="151" s="1" spans="1:3">
+      <c r="A151" t="s"/>
+    </row>
+    <row hidden="1" r="152" s="1" spans="1:3">
+      <c r="A152" t="s"/>
+    </row>
+    <row hidden="1" r="153" s="1" spans="1:3">
+      <c r="A153" t="s"/>
+    </row>
+    <row hidden="1" r="154" s="1" spans="1:3">
+      <c r="A154" t="s"/>
+    </row>
+    <row hidden="1" r="155" s="1" spans="1:3">
+      <c r="A155" t="s"/>
+    </row>
+    <row hidden="1" r="156" s="1" spans="1:3">
+      <c r="A156" t="s"/>
+    </row>
+    <row hidden="1" r="157" s="1" spans="1:3">
+      <c r="A157" t="s"/>
+    </row>
+    <row hidden="1" r="158" s="1" spans="1:3">
+      <c r="A158" t="s"/>
+    </row>
+    <row hidden="1" r="159" s="1" spans="1:3">
+      <c r="A159" t="s"/>
+    </row>
+    <row hidden="1" r="160" s="1" spans="1:3">
+      <c r="A160" t="s"/>
+    </row>
+    <row hidden="1" r="161" s="1" spans="1:3">
+      <c r="A161" t="s"/>
+    </row>
+    <row hidden="1" r="162" s="1" spans="1:3">
+      <c r="A162" t="s"/>
+    </row>
+    <row hidden="1" r="163" s="1" spans="1:3">
+      <c r="A163" t="s"/>
+    </row>
+    <row hidden="1" r="164" s="1" spans="1:3">
+      <c r="A164" t="s"/>
+    </row>
+    <row hidden="1" r="165" s="1" spans="1:3">
+      <c r="A165" t="s"/>
+    </row>
+    <row hidden="1" r="166" s="1" spans="1:3">
+      <c r="A166" t="s"/>
+    </row>
+    <row hidden="1" r="167" s="1" spans="1:3">
+      <c r="A167" t="s"/>
+    </row>
+    <row hidden="1" r="168" s="1" spans="1:3">
+      <c r="A168" t="s"/>
+    </row>
     <row r="169" s="1" spans="1:3">
       <c r="A169" t="s">
         <v>316</v>
@@ -37596,6 +37998,21 @@
         <v>2789</v>
       </c>
     </row>
+    <row hidden="1" r="170" s="1" spans="1:3">
+      <c r="A170" t="s"/>
+    </row>
+    <row hidden="1" r="171" s="1" spans="1:3">
+      <c r="A171" t="s"/>
+    </row>
+    <row hidden="1" r="172" s="1" spans="1:3">
+      <c r="A172" t="s"/>
+    </row>
+    <row hidden="1" r="173" s="1" spans="1:3">
+      <c r="A173" t="s"/>
+    </row>
+    <row hidden="1" r="174" s="1" spans="1:3">
+      <c r="A174" t="s"/>
+    </row>
     <row r="175" s="1" spans="1:3">
       <c r="A175" t="s">
         <v>331</v>
@@ -37607,6 +38024,12 @@
         <v>2791</v>
       </c>
     </row>
+    <row hidden="1" r="176" s="1" spans="1:3">
+      <c r="A176" t="s"/>
+    </row>
+    <row hidden="1" r="177" s="1" spans="1:3">
+      <c r="A177" t="s"/>
+    </row>
     <row r="178" s="1" spans="1:3">
       <c r="A178" t="s">
         <v>338</v>
@@ -37618,6 +38041,12 @@
         <v>2793</v>
       </c>
     </row>
+    <row hidden="1" r="179" s="1" spans="1:3">
+      <c r="A179" t="s"/>
+    </row>
+    <row hidden="1" r="180" s="1" spans="1:3">
+      <c r="A180" t="s"/>
+    </row>
     <row r="181" s="1" spans="1:3">
       <c r="A181" t="s">
         <v>345</v>
@@ -37629,6 +38058,30 @@
         <v>2795</v>
       </c>
     </row>
+    <row hidden="1" r="182" s="1" spans="1:3">
+      <c r="A182" t="s"/>
+    </row>
+    <row hidden="1" r="183" s="1" spans="1:3">
+      <c r="A183" t="s"/>
+    </row>
+    <row hidden="1" r="184" s="1" spans="1:3">
+      <c r="A184" t="s"/>
+    </row>
+    <row hidden="1" r="185" s="1" spans="1:3">
+      <c r="A185" t="s"/>
+    </row>
+    <row hidden="1" r="186" s="1" spans="1:3">
+      <c r="A186" t="s"/>
+    </row>
+    <row hidden="1" r="187" s="1" spans="1:3">
+      <c r="A187" t="s"/>
+    </row>
+    <row hidden="1" r="188" s="1" spans="1:3">
+      <c r="A188" t="s"/>
+    </row>
+    <row hidden="1" r="189" s="1" spans="1:3">
+      <c r="A189" t="s"/>
+    </row>
     <row r="190" s="1" spans="1:3">
       <c r="A190" t="s">
         <v>361</v>
@@ -37640,6 +38093,30 @@
         <v>2797</v>
       </c>
     </row>
+    <row hidden="1" r="191" s="1" spans="1:3">
+      <c r="A191" t="s"/>
+    </row>
+    <row hidden="1" r="192" s="1" spans="1:3">
+      <c r="A192" t="s"/>
+    </row>
+    <row hidden="1" r="193" s="1" spans="1:3">
+      <c r="A193" t="s"/>
+    </row>
+    <row hidden="1" r="194" s="1" spans="1:3">
+      <c r="A194" t="s"/>
+    </row>
+    <row hidden="1" r="195" s="1" spans="1:3">
+      <c r="A195" t="s"/>
+    </row>
+    <row hidden="1" r="196" s="1" spans="1:3">
+      <c r="A196" t="s"/>
+    </row>
+    <row hidden="1" r="197" s="1" spans="1:3">
+      <c r="A197" t="s"/>
+    </row>
+    <row hidden="1" r="198" s="1" spans="1:3">
+      <c r="A198" t="s"/>
+    </row>
     <row r="199" s="1" spans="1:3">
       <c r="A199" t="s">
         <v>379</v>
@@ -37651,6 +38128,33 @@
         <v>2799</v>
       </c>
     </row>
+    <row hidden="1" r="200" s="1" spans="1:3">
+      <c r="A200" t="s"/>
+    </row>
+    <row hidden="1" r="201" s="1" spans="1:3">
+      <c r="A201" t="s"/>
+    </row>
+    <row hidden="1" r="202" s="1" spans="1:3">
+      <c r="A202" t="s"/>
+    </row>
+    <row hidden="1" r="203" s="1" spans="1:3">
+      <c r="A203" t="s"/>
+    </row>
+    <row hidden="1" r="204" s="1" spans="1:3">
+      <c r="A204" t="s"/>
+    </row>
+    <row hidden="1" r="205" s="1" spans="1:3">
+      <c r="A205" t="s"/>
+    </row>
+    <row hidden="1" r="206" s="1" spans="1:3">
+      <c r="A206" t="s"/>
+    </row>
+    <row hidden="1" r="207" s="1" spans="1:3">
+      <c r="A207" t="s"/>
+    </row>
+    <row hidden="1" r="208" s="1" spans="1:3">
+      <c r="A208" t="s"/>
+    </row>
     <row r="209" s="1" spans="1:3">
       <c r="A209" t="s">
         <v>396</v>
@@ -37662,6 +38166,99 @@
         <v>2801</v>
       </c>
     </row>
+    <row hidden="1" r="210" s="1" spans="1:3">
+      <c r="A210" t="s"/>
+    </row>
+    <row hidden="1" r="211" s="1" spans="1:3">
+      <c r="A211" t="s"/>
+    </row>
+    <row hidden="1" r="212" s="1" spans="1:3">
+      <c r="A212" t="s"/>
+    </row>
+    <row hidden="1" r="213" s="1" spans="1:3">
+      <c r="A213" t="s"/>
+    </row>
+    <row hidden="1" r="214" s="1" spans="1:3">
+      <c r="A214" t="s"/>
+    </row>
+    <row hidden="1" r="215" s="1" spans="1:3">
+      <c r="A215" t="s"/>
+    </row>
+    <row hidden="1" r="216" s="1" spans="1:3">
+      <c r="A216" t="s"/>
+    </row>
+    <row hidden="1" r="217" s="1" spans="1:3">
+      <c r="A217" t="s"/>
+    </row>
+    <row hidden="1" r="218" s="1" spans="1:3">
+      <c r="A218" t="s"/>
+    </row>
+    <row hidden="1" r="219" s="1" spans="1:3">
+      <c r="A219" t="s"/>
+    </row>
+    <row hidden="1" r="220" s="1" spans="1:3">
+      <c r="A220" t="s"/>
+    </row>
+    <row hidden="1" r="221" s="1" spans="1:3">
+      <c r="A221" t="s"/>
+    </row>
+    <row hidden="1" r="222" s="1" spans="1:3">
+      <c r="A222" t="s"/>
+    </row>
+    <row hidden="1" r="223" s="1" spans="1:3">
+      <c r="A223" t="s"/>
+    </row>
+    <row hidden="1" r="224" s="1" spans="1:3">
+      <c r="A224" t="s"/>
+    </row>
+    <row hidden="1" r="225" s="1" spans="1:3">
+      <c r="A225" t="s"/>
+    </row>
+    <row hidden="1" r="226" s="1" spans="1:3">
+      <c r="A226" t="s"/>
+    </row>
+    <row hidden="1" r="227" s="1" spans="1:3">
+      <c r="A227" t="s"/>
+    </row>
+    <row hidden="1" r="228" s="1" spans="1:3">
+      <c r="A228" t="s"/>
+    </row>
+    <row hidden="1" r="229" s="1" spans="1:3">
+      <c r="A229" t="s"/>
+    </row>
+    <row hidden="1" r="230" s="1" spans="1:3">
+      <c r="A230" t="s"/>
+    </row>
+    <row hidden="1" r="231" s="1" spans="1:3">
+      <c r="A231" t="s"/>
+    </row>
+    <row hidden="1" r="232" s="1" spans="1:3">
+      <c r="A232" t="s"/>
+    </row>
+    <row hidden="1" r="233" s="1" spans="1:3">
+      <c r="A233" t="s"/>
+    </row>
+    <row hidden="1" r="234" s="1" spans="1:3">
+      <c r="A234" t="s"/>
+    </row>
+    <row hidden="1" r="235" s="1" spans="1:3">
+      <c r="A235" t="s"/>
+    </row>
+    <row hidden="1" r="236" s="1" spans="1:3">
+      <c r="A236" t="s"/>
+    </row>
+    <row hidden="1" r="237" s="1" spans="1:3">
+      <c r="A237" t="s"/>
+    </row>
+    <row hidden="1" r="238" s="1" spans="1:3">
+      <c r="A238" t="s"/>
+    </row>
+    <row hidden="1" r="239" s="1" spans="1:3">
+      <c r="A239" t="s"/>
+    </row>
+    <row hidden="1" r="240" s="1" spans="1:3">
+      <c r="A240" t="s"/>
+    </row>
     <row r="241" s="1" spans="1:3">
       <c r="A241" t="s">
         <v>421</v>
@@ -37673,6 +38270,15 @@
         <v>2803</v>
       </c>
     </row>
+    <row hidden="1" r="242" s="1" spans="1:3">
+      <c r="A242" t="s"/>
+    </row>
+    <row hidden="1" r="243" s="1" spans="1:3">
+      <c r="A243" t="s"/>
+    </row>
+    <row hidden="1" r="244" s="1" spans="1:3">
+      <c r="A244" t="s"/>
+    </row>
     <row r="245" s="1" spans="1:3">
       <c r="A245" t="s">
         <v>431</v>
@@ -37684,6 +38290,21 @@
         <v>2805</v>
       </c>
     </row>
+    <row hidden="1" r="246" s="1" spans="1:3">
+      <c r="A246" t="s"/>
+    </row>
+    <row hidden="1" r="247" s="1" spans="1:3">
+      <c r="A247" t="s"/>
+    </row>
+    <row hidden="1" r="248" s="1" spans="1:3">
+      <c r="A248" t="s"/>
+    </row>
+    <row hidden="1" r="249" s="1" spans="1:3">
+      <c r="A249" t="s"/>
+    </row>
+    <row hidden="1" r="250" s="1" spans="1:3">
+      <c r="A250" t="s"/>
+    </row>
     <row r="251" s="1" spans="1:3">
       <c r="A251" t="s">
         <v>446</v>
@@ -37695,6 +38316,9 @@
         <v>2807</v>
       </c>
     </row>
+    <row hidden="1" r="252" s="1" spans="1:3">
+      <c r="A252" t="s"/>
+    </row>
     <row r="253" s="1" spans="1:3">
       <c r="A253" t="s">
         <v>451</v>
@@ -37717,6 +38341,30 @@
         <v>2811</v>
       </c>
     </row>
+    <row hidden="1" r="255" s="1" spans="1:3">
+      <c r="A255" t="s"/>
+    </row>
+    <row hidden="1" r="256" s="1" spans="1:3">
+      <c r="A256" t="s"/>
+    </row>
+    <row hidden="1" r="257" s="1" spans="1:3">
+      <c r="A257" t="s"/>
+    </row>
+    <row hidden="1" r="258" s="1" spans="1:3">
+      <c r="A258" t="s"/>
+    </row>
+    <row hidden="1" r="259" s="1" spans="1:3">
+      <c r="A259" t="s"/>
+    </row>
+    <row hidden="1" r="260" s="1" spans="1:3">
+      <c r="A260" t="s"/>
+    </row>
+    <row hidden="1" r="261" s="1" spans="1:3">
+      <c r="A261" t="s"/>
+    </row>
+    <row hidden="1" r="262" s="1" spans="1:3">
+      <c r="A262" t="s"/>
+    </row>
     <row r="263" s="1" spans="1:3">
       <c r="A263" t="s">
         <v>473</v>
@@ -37728,6 +38376,9 @@
         <v>2813</v>
       </c>
     </row>
+    <row hidden="1" r="264" s="1" spans="1:3">
+      <c r="A264" t="s"/>
+    </row>
     <row r="265" s="1" spans="1:3">
       <c r="A265" t="s">
         <v>479</v>
@@ -37739,6 +38390,12 @@
         <v>2815</v>
       </c>
     </row>
+    <row hidden="1" r="266" s="1" spans="1:3">
+      <c r="A266" t="s"/>
+    </row>
+    <row hidden="1" r="267" s="1" spans="1:3">
+      <c r="A267" t="s"/>
+    </row>
     <row r="268" s="1" spans="1:3">
       <c r="A268" t="s">
         <v>486</v>
@@ -37761,6 +38418,30 @@
         <v>2817</v>
       </c>
     </row>
+    <row hidden="1" r="270" s="1" spans="1:3">
+      <c r="A270" t="s"/>
+    </row>
+    <row hidden="1" r="271" s="1" spans="1:3">
+      <c r="A271" t="s"/>
+    </row>
+    <row hidden="1" r="272" s="1" spans="1:3">
+      <c r="A272" t="s"/>
+    </row>
+    <row hidden="1" r="273" s="1" spans="1:3">
+      <c r="A273" t="s"/>
+    </row>
+    <row hidden="1" r="274" s="1" spans="1:3">
+      <c r="A274" t="s"/>
+    </row>
+    <row hidden="1" r="275" s="1" spans="1:3">
+      <c r="A275" t="s"/>
+    </row>
+    <row hidden="1" r="276" s="1" spans="1:3">
+      <c r="A276" t="s"/>
+    </row>
+    <row hidden="1" r="277" s="1" spans="1:3">
+      <c r="A277" t="s"/>
+    </row>
     <row r="278" s="1" spans="1:3">
       <c r="A278" t="s">
         <v>290</v>
@@ -37772,6 +38453,42 @@
         <v>2819</v>
       </c>
     </row>
+    <row hidden="1" r="279" s="1" spans="1:3">
+      <c r="A279" t="s"/>
+    </row>
+    <row hidden="1" r="280" s="1" spans="1:3">
+      <c r="A280" t="s"/>
+    </row>
+    <row hidden="1" r="281" s="1" spans="1:3">
+      <c r="A281" t="s"/>
+    </row>
+    <row hidden="1" r="282" s="1" spans="1:3">
+      <c r="A282" t="s"/>
+    </row>
+    <row hidden="1" r="283" s="1" spans="1:3">
+      <c r="A283" t="s"/>
+    </row>
+    <row hidden="1" r="284" s="1" spans="1:3">
+      <c r="A284" t="s"/>
+    </row>
+    <row hidden="1" r="285" s="1" spans="1:3">
+      <c r="A285" t="s"/>
+    </row>
+    <row hidden="1" r="286" s="1" spans="1:3">
+      <c r="A286" t="s"/>
+    </row>
+    <row hidden="1" r="287" s="1" spans="1:3">
+      <c r="A287" t="s"/>
+    </row>
+    <row hidden="1" r="288" s="1" spans="1:3">
+      <c r="A288" t="s"/>
+    </row>
+    <row hidden="1" r="289" s="1" spans="1:3">
+      <c r="A289" t="s"/>
+    </row>
+    <row hidden="1" r="290" s="1" spans="1:3">
+      <c r="A290" t="s"/>
+    </row>
     <row r="291" s="1" spans="1:3">
       <c r="A291" t="s">
         <v>526</v>
@@ -37783,6 +38500,18 @@
         <v>2821</v>
       </c>
     </row>
+    <row hidden="1" r="292" s="1" spans="1:3">
+      <c r="A292" t="s"/>
+    </row>
+    <row hidden="1" r="293" s="1" spans="1:3">
+      <c r="A293" t="s"/>
+    </row>
+    <row hidden="1" r="294" s="1" spans="1:3">
+      <c r="A294" t="s"/>
+    </row>
+    <row hidden="1" r="295" s="1" spans="1:3">
+      <c r="A295" t="s"/>
+    </row>
     <row r="296" s="1" spans="1:3">
       <c r="A296" t="s">
         <v>451</v>
@@ -37794,6 +38523,24 @@
         <v>2823</v>
       </c>
     </row>
+    <row hidden="1" r="297" s="1" spans="1:3">
+      <c r="A297" t="s"/>
+    </row>
+    <row hidden="1" r="298" s="1" spans="1:3">
+      <c r="A298" t="s"/>
+    </row>
+    <row hidden="1" r="299" s="1" spans="1:3">
+      <c r="A299" t="s"/>
+    </row>
+    <row hidden="1" r="300" s="1" spans="1:3">
+      <c r="A300" t="s"/>
+    </row>
+    <row hidden="1" r="301" s="1" spans="1:3">
+      <c r="A301" t="s"/>
+    </row>
+    <row hidden="1" r="302" s="1" spans="1:3">
+      <c r="A302" t="s"/>
+    </row>
     <row r="303" s="1" spans="1:3">
       <c r="A303" t="s">
         <v>451</v>
@@ -37805,6 +38552,24 @@
         <v>2823</v>
       </c>
     </row>
+    <row hidden="1" r="304" s="1" spans="1:3">
+      <c r="A304" t="s"/>
+    </row>
+    <row hidden="1" r="305" s="1" spans="1:3">
+      <c r="A305" t="s"/>
+    </row>
+    <row hidden="1" r="306" s="1" spans="1:3">
+      <c r="A306" t="s"/>
+    </row>
+    <row hidden="1" r="307" s="1" spans="1:3">
+      <c r="A307" t="s"/>
+    </row>
+    <row hidden="1" r="308" s="1" spans="1:3">
+      <c r="A308" t="s"/>
+    </row>
+    <row hidden="1" r="309" s="1" spans="1:3">
+      <c r="A309" t="s"/>
+    </row>
     <row r="310" s="1" spans="1:3">
       <c r="A310" t="s">
         <v>451</v>
@@ -37816,6 +38581,33 @@
         <v>2823</v>
       </c>
     </row>
+    <row hidden="1" r="311" s="1" spans="1:3">
+      <c r="A311" t="s"/>
+    </row>
+    <row hidden="1" r="312" s="1" spans="1:3">
+      <c r="A312" t="s"/>
+    </row>
+    <row hidden="1" r="313" s="1" spans="1:3">
+      <c r="A313" t="s"/>
+    </row>
+    <row hidden="1" r="314" s="1" spans="1:3">
+      <c r="A314" t="s"/>
+    </row>
+    <row hidden="1" r="315" s="1" spans="1:3">
+      <c r="A315" t="s"/>
+    </row>
+    <row hidden="1" r="316" s="1" spans="1:3">
+      <c r="A316" t="s"/>
+    </row>
+    <row hidden="1" r="317" s="1" spans="1:3">
+      <c r="A317" t="s"/>
+    </row>
+    <row hidden="1" r="318" s="1" spans="1:3">
+      <c r="A318" t="s"/>
+    </row>
+    <row hidden="1" r="319" s="1" spans="1:3">
+      <c r="A319" t="s"/>
+    </row>
     <row r="320" s="1" spans="1:3">
       <c r="A320" t="s">
         <v>451</v>
@@ -37827,6 +38619,81 @@
         <v>2823</v>
       </c>
     </row>
+    <row hidden="1" r="321" s="1" spans="1:3">
+      <c r="A321" t="s"/>
+    </row>
+    <row hidden="1" r="322" s="1" spans="1:3">
+      <c r="A322" t="s"/>
+    </row>
+    <row hidden="1" r="323" s="1" spans="1:3">
+      <c r="A323" t="s"/>
+    </row>
+    <row hidden="1" r="324" s="1" spans="1:3">
+      <c r="A324" t="s"/>
+    </row>
+    <row hidden="1" r="325" s="1" spans="1:3">
+      <c r="A325" t="s"/>
+    </row>
+    <row hidden="1" r="326" s="1" spans="1:3">
+      <c r="A326" t="s"/>
+    </row>
+    <row hidden="1" r="327" s="1" spans="1:3">
+      <c r="A327" t="s"/>
+    </row>
+    <row hidden="1" r="328" s="1" spans="1:3">
+      <c r="A328" t="s"/>
+    </row>
+    <row hidden="1" r="329" s="1" spans="1:3">
+      <c r="A329" t="s"/>
+    </row>
+    <row hidden="1" r="330" s="1" spans="1:3">
+      <c r="A330" t="s"/>
+    </row>
+    <row hidden="1" r="331" s="1" spans="1:3">
+      <c r="A331" t="s"/>
+    </row>
+    <row hidden="1" r="332" s="1" spans="1:3">
+      <c r="A332" t="s"/>
+    </row>
+    <row hidden="1" r="333" s="1" spans="1:3">
+      <c r="A333" t="s"/>
+    </row>
+    <row hidden="1" r="334" s="1" spans="1:3">
+      <c r="A334" t="s"/>
+    </row>
+    <row hidden="1" r="335" s="1" spans="1:3">
+      <c r="A335" t="s"/>
+    </row>
+    <row hidden="1" r="336" s="1" spans="1:3">
+      <c r="A336" t="s"/>
+    </row>
+    <row hidden="1" r="337" s="1" spans="1:3">
+      <c r="A337" t="s"/>
+    </row>
+    <row hidden="1" r="338" s="1" spans="1:3">
+      <c r="A338" t="s"/>
+    </row>
+    <row hidden="1" r="339" s="1" spans="1:3">
+      <c r="A339" t="s"/>
+    </row>
+    <row hidden="1" r="340" s="1" spans="1:3">
+      <c r="A340" t="s"/>
+    </row>
+    <row hidden="1" r="341" s="1" spans="1:3">
+      <c r="A341" t="s"/>
+    </row>
+    <row hidden="1" r="342" s="1" spans="1:3">
+      <c r="A342" t="s"/>
+    </row>
+    <row hidden="1" r="343" s="1" spans="1:3">
+      <c r="A343" t="s"/>
+    </row>
+    <row hidden="1" r="344" s="1" spans="1:3">
+      <c r="A344" t="s"/>
+    </row>
+    <row hidden="1" r="345" s="1" spans="1:3">
+      <c r="A345" t="s"/>
+    </row>
     <row r="346" s="1" spans="1:3">
       <c r="A346" t="s">
         <v>580</v>
@@ -37838,6 +38705,27 @@
         <v>2825</v>
       </c>
     </row>
+    <row hidden="1" r="347" s="1" spans="1:3">
+      <c r="A347" t="s"/>
+    </row>
+    <row hidden="1" r="348" s="1" spans="1:3">
+      <c r="A348" t="s"/>
+    </row>
+    <row hidden="1" r="349" s="1" spans="1:3">
+      <c r="A349" t="s"/>
+    </row>
+    <row hidden="1" r="350" s="1" spans="1:3">
+      <c r="A350" t="s"/>
+    </row>
+    <row hidden="1" r="351" s="1" spans="1:3">
+      <c r="A351" t="s"/>
+    </row>
+    <row hidden="1" r="352" s="1" spans="1:3">
+      <c r="A352" t="s"/>
+    </row>
+    <row hidden="1" r="353" s="1" spans="1:3">
+      <c r="A353" t="s"/>
+    </row>
     <row r="354" s="1" spans="1:3">
       <c r="A354" t="s">
         <v>599</v>
@@ -37849,6 +38737,63 @@
         <v>2827</v>
       </c>
     </row>
+    <row hidden="1" r="355" s="1" spans="1:3">
+      <c r="A355" t="s"/>
+    </row>
+    <row hidden="1" r="356" s="1" spans="1:3">
+      <c r="A356" t="s"/>
+    </row>
+    <row hidden="1" r="357" s="1" spans="1:3">
+      <c r="A357" t="s"/>
+    </row>
+    <row hidden="1" r="358" s="1" spans="1:3">
+      <c r="A358" t="s"/>
+    </row>
+    <row hidden="1" r="359" s="1" spans="1:3">
+      <c r="A359" t="s"/>
+    </row>
+    <row hidden="1" r="360" s="1" spans="1:3">
+      <c r="A360" t="s"/>
+    </row>
+    <row hidden="1" r="361" s="1" spans="1:3">
+      <c r="A361" t="s"/>
+    </row>
+    <row hidden="1" r="362" s="1" spans="1:3">
+      <c r="A362" t="s"/>
+    </row>
+    <row hidden="1" r="363" s="1" spans="1:3">
+      <c r="A363" t="s"/>
+    </row>
+    <row hidden="1" r="364" s="1" spans="1:3">
+      <c r="A364" t="s"/>
+    </row>
+    <row hidden="1" r="365" s="1" spans="1:3">
+      <c r="A365" t="s"/>
+    </row>
+    <row hidden="1" r="366" s="1" spans="1:3">
+      <c r="A366" t="s"/>
+    </row>
+    <row hidden="1" r="367" s="1" spans="1:3">
+      <c r="A367" t="s"/>
+    </row>
+    <row hidden="1" r="368" s="1" spans="1:3">
+      <c r="A368" t="s"/>
+    </row>
+    <row hidden="1" r="369" s="1" spans="1:3">
+      <c r="A369" t="s"/>
+    </row>
+    <row hidden="1" r="370" s="1" spans="1:3">
+      <c r="A370" t="s"/>
+    </row>
+    <row hidden="1" r="371" s="1" spans="1:3">
+      <c r="A371" t="s"/>
+    </row>
+    <row hidden="1" r="372" s="1" spans="1:3">
+      <c r="A372" t="s"/>
+    </row>
+    <row hidden="1" r="373" s="1" spans="1:3">
+      <c r="A373" t="s"/>
+    </row>
     <row r="374" s="1" spans="1:3">
       <c r="A374" t="s">
         <v>641</v>
@@ -37882,6 +38827,36 @@
         <v>2831</v>
       </c>
     </row>
+    <row hidden="1" r="377" s="1" spans="1:3">
+      <c r="A377" t="s"/>
+    </row>
+    <row hidden="1" r="378" s="1" spans="1:3">
+      <c r="A378" t="s"/>
+    </row>
+    <row hidden="1" r="379" s="1" spans="1:3">
+      <c r="A379" t="s"/>
+    </row>
+    <row hidden="1" r="380" s="1" spans="1:3">
+      <c r="A380" t="s"/>
+    </row>
+    <row hidden="1" r="381" s="1" spans="1:3">
+      <c r="A381" t="s"/>
+    </row>
+    <row hidden="1" r="382" s="1" spans="1:3">
+      <c r="A382" t="s"/>
+    </row>
+    <row hidden="1" r="383" s="1" spans="1:3">
+      <c r="A383" t="s"/>
+    </row>
+    <row hidden="1" r="384" s="1" spans="1:3">
+      <c r="A384" t="s"/>
+    </row>
+    <row hidden="1" r="385" s="1" spans="1:3">
+      <c r="A385" t="s"/>
+    </row>
+    <row hidden="1" r="386" s="1" spans="1:3">
+      <c r="A386" t="s"/>
+    </row>
     <row r="387" s="1" spans="1:3">
       <c r="A387" t="s">
         <v>666</v>
@@ -37893,6 +38868,12 @@
         <v>2834</v>
       </c>
     </row>
+    <row hidden="1" r="388" s="1" spans="1:3">
+      <c r="A388" t="s"/>
+    </row>
+    <row hidden="1" r="389" s="1" spans="1:3">
+      <c r="A389" t="s"/>
+    </row>
     <row r="390" s="1" spans="1:3">
       <c r="A390" t="s">
         <v>673</v>
@@ -37904,6 +38885,21 @@
         <v>2836</v>
       </c>
     </row>
+    <row hidden="1" r="391" s="1" spans="1:3">
+      <c r="A391" t="s"/>
+    </row>
+    <row hidden="1" r="392" s="1" spans="1:3">
+      <c r="A392" t="s"/>
+    </row>
+    <row hidden="1" r="393" s="1" spans="1:3">
+      <c r="A393" t="s"/>
+    </row>
+    <row hidden="1" r="394" s="1" spans="1:3">
+      <c r="A394" t="s"/>
+    </row>
+    <row hidden="1" r="395" s="1" spans="1:3">
+      <c r="A395" t="s"/>
+    </row>
     <row r="396" s="1" spans="1:3">
       <c r="A396" t="s">
         <v>687</v>
@@ -37915,6 +38911,63 @@
         <v>2838</v>
       </c>
     </row>
+    <row hidden="1" r="397" s="1" spans="1:3">
+      <c r="A397" t="s"/>
+    </row>
+    <row hidden="1" r="398" s="1" spans="1:3">
+      <c r="A398" t="s"/>
+    </row>
+    <row hidden="1" r="399" s="1" spans="1:3">
+      <c r="A399" t="s"/>
+    </row>
+    <row hidden="1" r="400" s="1" spans="1:3">
+      <c r="A400" t="s"/>
+    </row>
+    <row hidden="1" r="401" s="1" spans="1:3">
+      <c r="A401" t="s"/>
+    </row>
+    <row hidden="1" r="402" s="1" spans="1:3">
+      <c r="A402" t="s"/>
+    </row>
+    <row hidden="1" r="403" s="1" spans="1:3">
+      <c r="A403" t="s"/>
+    </row>
+    <row hidden="1" r="404" s="1" spans="1:3">
+      <c r="A404" t="s"/>
+    </row>
+    <row hidden="1" r="405" s="1" spans="1:3">
+      <c r="A405" t="s"/>
+    </row>
+    <row hidden="1" r="406" s="1" spans="1:3">
+      <c r="A406" t="s"/>
+    </row>
+    <row hidden="1" r="407" s="1" spans="1:3">
+      <c r="A407" t="s"/>
+    </row>
+    <row hidden="1" r="408" s="1" spans="1:3">
+      <c r="A408" t="s"/>
+    </row>
+    <row hidden="1" r="409" s="1" spans="1:3">
+      <c r="A409" t="s"/>
+    </row>
+    <row hidden="1" r="410" s="1" spans="1:3">
+      <c r="A410" t="s"/>
+    </row>
+    <row hidden="1" r="411" s="1" spans="1:3">
+      <c r="A411" t="s"/>
+    </row>
+    <row hidden="1" r="412" s="1" spans="1:3">
+      <c r="A412" t="s"/>
+    </row>
+    <row hidden="1" r="413" s="1" spans="1:3">
+      <c r="A413" t="s"/>
+    </row>
+    <row hidden="1" r="414" s="1" spans="1:3">
+      <c r="A414" t="s"/>
+    </row>
+    <row hidden="1" r="415" s="1" spans="1:3">
+      <c r="A415" t="s"/>
+    </row>
     <row r="416" s="1" spans="1:3">
       <c r="A416" t="s">
         <v>728</v>
@@ -37924,6 +38977,12 @@
       </c>
       <c r="C416" t="s"/>
     </row>
+    <row hidden="1" r="417" s="1" spans="1:3">
+      <c r="A417" t="s"/>
+    </row>
+    <row hidden="1" r="418" s="1" spans="1:3">
+      <c r="A418" t="s"/>
+    </row>
     <row r="419" s="1" spans="1:3">
       <c r="A419" t="s">
         <v>733</v>
@@ -37935,6 +38994,27 @@
         <v>2841</v>
       </c>
     </row>
+    <row hidden="1" r="420" s="1" spans="1:3">
+      <c r="A420" t="s"/>
+    </row>
+    <row hidden="1" r="421" s="1" spans="1:3">
+      <c r="A421" t="s"/>
+    </row>
+    <row hidden="1" r="422" s="1" spans="1:3">
+      <c r="A422" t="s"/>
+    </row>
+    <row hidden="1" r="423" s="1" spans="1:3">
+      <c r="A423" t="s"/>
+    </row>
+    <row hidden="1" r="424" s="1" spans="1:3">
+      <c r="A424" t="s"/>
+    </row>
+    <row hidden="1" r="425" s="1" spans="1:3">
+      <c r="A425" t="s"/>
+    </row>
+    <row hidden="1" r="426" s="1" spans="1:3">
+      <c r="A426" t="s"/>
+    </row>
     <row r="427" s="1" spans="1:3">
       <c r="A427" t="s">
         <v>752</v>
@@ -37946,6 +39026,33 @@
         <v>2843</v>
       </c>
     </row>
+    <row hidden="1" r="428" s="1" spans="1:3">
+      <c r="A428" t="s"/>
+    </row>
+    <row hidden="1" r="429" s="1" spans="1:3">
+      <c r="A429" t="s"/>
+    </row>
+    <row hidden="1" r="430" s="1" spans="1:3">
+      <c r="A430" t="s"/>
+    </row>
+    <row hidden="1" r="431" s="1" spans="1:3">
+      <c r="A431" t="s"/>
+    </row>
+    <row hidden="1" r="432" s="1" spans="1:3">
+      <c r="A432" t="s"/>
+    </row>
+    <row hidden="1" r="433" s="1" spans="1:3">
+      <c r="A433" t="s"/>
+    </row>
+    <row hidden="1" r="434" s="1" spans="1:3">
+      <c r="A434" t="s"/>
+    </row>
+    <row hidden="1" r="435" s="1" spans="1:3">
+      <c r="A435" t="s"/>
+    </row>
+    <row hidden="1" r="436" s="1" spans="1:3">
+      <c r="A436" t="s"/>
+    </row>
     <row r="437" s="1" spans="1:3">
       <c r="A437" t="s">
         <v>780</v>
@@ -37957,6 +39064,15 @@
         <v>2845</v>
       </c>
     </row>
+    <row hidden="1" r="438" s="1" spans="1:3">
+      <c r="A438" t="s"/>
+    </row>
+    <row hidden="1" r="439" s="1" spans="1:3">
+      <c r="A439" t="s"/>
+    </row>
+    <row hidden="1" r="440" s="1" spans="1:3">
+      <c r="A440" t="s"/>
+    </row>
     <row r="441" s="1" spans="1:3">
       <c r="A441" t="s">
         <v>789</v>
@@ -37968,6 +39084,66 @@
         <v>2847</v>
       </c>
     </row>
+    <row hidden="1" r="442" s="1" spans="1:3">
+      <c r="A442" t="s"/>
+    </row>
+    <row hidden="1" r="443" s="1" spans="1:3">
+      <c r="A443" t="s"/>
+    </row>
+    <row hidden="1" r="444" s="1" spans="1:3">
+      <c r="A444" t="s"/>
+    </row>
+    <row hidden="1" r="445" s="1" spans="1:3">
+      <c r="A445" t="s"/>
+    </row>
+    <row hidden="1" r="446" s="1" spans="1:3">
+      <c r="A446" t="s"/>
+    </row>
+    <row hidden="1" r="447" s="1" spans="1:3">
+      <c r="A447" t="s"/>
+    </row>
+    <row hidden="1" r="448" s="1" spans="1:3">
+      <c r="A448" t="s"/>
+    </row>
+    <row hidden="1" r="449" s="1" spans="1:3">
+      <c r="A449" t="s"/>
+    </row>
+    <row hidden="1" r="450" s="1" spans="1:3">
+      <c r="A450" t="s"/>
+    </row>
+    <row hidden="1" r="451" s="1" spans="1:3">
+      <c r="A451" t="s"/>
+    </row>
+    <row hidden="1" r="452" s="1" spans="1:3">
+      <c r="A452" t="s"/>
+    </row>
+    <row hidden="1" r="453" s="1" spans="1:3">
+      <c r="A453" t="s"/>
+    </row>
+    <row hidden="1" r="454" s="1" spans="1:3">
+      <c r="A454" t="s"/>
+    </row>
+    <row hidden="1" r="455" s="1" spans="1:3">
+      <c r="A455" t="s"/>
+    </row>
+    <row hidden="1" r="456" s="1" spans="1:3">
+      <c r="A456" t="s"/>
+    </row>
+    <row hidden="1" r="457" s="1" spans="1:3">
+      <c r="A457" t="s"/>
+    </row>
+    <row hidden="1" r="458" s="1" spans="1:3">
+      <c r="A458" t="s"/>
+    </row>
+    <row hidden="1" r="459" s="1" spans="1:3">
+      <c r="A459" t="s"/>
+    </row>
+    <row hidden="1" r="460" s="1" spans="1:3">
+      <c r="A460" t="s"/>
+    </row>
+    <row hidden="1" r="461" s="1" spans="1:3">
+      <c r="A461" t="s"/>
+    </row>
     <row r="462" s="1" spans="1:3">
       <c r="A462" t="s">
         <v>832</v>
@@ -37979,6 +39155,168 @@
         <v>2849</v>
       </c>
     </row>
+    <row hidden="1" r="463" s="1" spans="1:3">
+      <c r="A463" t="s"/>
+    </row>
+    <row hidden="1" r="464" s="1" spans="1:3">
+      <c r="A464" t="s"/>
+    </row>
+    <row hidden="1" r="465" s="1" spans="1:3">
+      <c r="A465" t="s"/>
+    </row>
+    <row hidden="1" r="466" s="1" spans="1:3">
+      <c r="A466" t="s"/>
+    </row>
+    <row hidden="1" r="467" s="1" spans="1:3">
+      <c r="A467" t="s"/>
+    </row>
+    <row hidden="1" r="468" s="1" spans="1:3">
+      <c r="A468" t="s"/>
+    </row>
+    <row hidden="1" r="469" s="1" spans="1:3">
+      <c r="A469" t="s"/>
+    </row>
+    <row hidden="1" r="470" s="1" spans="1:3">
+      <c r="A470" t="s"/>
+    </row>
+    <row hidden="1" r="471" s="1" spans="1:3">
+      <c r="A471" t="s"/>
+    </row>
+    <row hidden="1" r="472" s="1" spans="1:3">
+      <c r="A472" t="s"/>
+    </row>
+    <row hidden="1" r="473" s="1" spans="1:3">
+      <c r="A473" t="s"/>
+    </row>
+    <row hidden="1" r="474" s="1" spans="1:3">
+      <c r="A474" t="s"/>
+    </row>
+    <row hidden="1" r="475" s="1" spans="1:3">
+      <c r="A475" t="s"/>
+    </row>
+    <row hidden="1" r="476" s="1" spans="1:3">
+      <c r="A476" t="s"/>
+    </row>
+    <row hidden="1" r="477" s="1" spans="1:3">
+      <c r="A477" t="s"/>
+    </row>
+    <row hidden="1" r="478" s="1" spans="1:3">
+      <c r="A478" t="s"/>
+    </row>
+    <row hidden="1" r="479" s="1" spans="1:3">
+      <c r="A479" t="s"/>
+    </row>
+    <row hidden="1" r="480" s="1" spans="1:3">
+      <c r="A480" t="s"/>
+    </row>
+    <row hidden="1" r="481" s="1" spans="1:3">
+      <c r="A481" t="s"/>
+    </row>
+    <row hidden="1" r="482" s="1" spans="1:3">
+      <c r="A482" t="s"/>
+    </row>
+    <row hidden="1" r="483" s="1" spans="1:3">
+      <c r="A483" t="s"/>
+    </row>
+    <row hidden="1" r="484" s="1" spans="1:3">
+      <c r="A484" t="s"/>
+    </row>
+    <row hidden="1" r="485" s="1" spans="1:3">
+      <c r="A485" t="s"/>
+    </row>
+    <row hidden="1" r="486" s="1" spans="1:3">
+      <c r="A486" t="s"/>
+    </row>
+    <row hidden="1" r="487" s="1" spans="1:3">
+      <c r="A487" t="s"/>
+    </row>
+    <row hidden="1" r="488" s="1" spans="1:3">
+      <c r="A488" t="s"/>
+    </row>
+    <row hidden="1" r="489" s="1" spans="1:3">
+      <c r="A489" t="s"/>
+    </row>
+    <row hidden="1" r="490" s="1" spans="1:3">
+      <c r="A490" t="s"/>
+    </row>
+    <row hidden="1" r="491" s="1" spans="1:3">
+      <c r="A491" t="s"/>
+    </row>
+    <row hidden="1" r="492" s="1" spans="1:3">
+      <c r="A492" t="s"/>
+    </row>
+    <row hidden="1" r="493" s="1" spans="1:3">
+      <c r="A493" t="s"/>
+    </row>
+    <row hidden="1" r="494" s="1" spans="1:3">
+      <c r="A494" t="s"/>
+    </row>
+    <row hidden="1" r="495" s="1" spans="1:3">
+      <c r="A495" t="s"/>
+    </row>
+    <row hidden="1" r="496" s="1" spans="1:3">
+      <c r="A496" t="s"/>
+    </row>
+    <row hidden="1" r="497" s="1" spans="1:3">
+      <c r="A497" t="s"/>
+    </row>
+    <row hidden="1" r="498" s="1" spans="1:3">
+      <c r="A498" t="s"/>
+    </row>
+    <row hidden="1" r="499" s="1" spans="1:3">
+      <c r="A499" t="s"/>
+    </row>
+    <row hidden="1" r="500" s="1" spans="1:3">
+      <c r="A500" t="s"/>
+    </row>
+    <row hidden="1" r="501" s="1" spans="1:3">
+      <c r="A501" t="s"/>
+    </row>
+    <row hidden="1" r="502" s="1" spans="1:3">
+      <c r="A502" t="s"/>
+    </row>
+    <row hidden="1" r="503" s="1" spans="1:3">
+      <c r="A503" t="s"/>
+    </row>
+    <row hidden="1" r="504" s="1" spans="1:3">
+      <c r="A504" t="s"/>
+    </row>
+    <row hidden="1" r="505" s="1" spans="1:3">
+      <c r="A505" t="s"/>
+    </row>
+    <row hidden="1" r="506" s="1" spans="1:3">
+      <c r="A506" t="s"/>
+    </row>
+    <row hidden="1" r="507" s="1" spans="1:3">
+      <c r="A507" t="s"/>
+    </row>
+    <row hidden="1" r="508" s="1" spans="1:3">
+      <c r="A508" t="s"/>
+    </row>
+    <row hidden="1" r="509" s="1" spans="1:3">
+      <c r="A509" t="s"/>
+    </row>
+    <row hidden="1" r="510" s="1" spans="1:3">
+      <c r="A510" t="s"/>
+    </row>
+    <row hidden="1" r="511" s="1" spans="1:3">
+      <c r="A511" t="s"/>
+    </row>
+    <row hidden="1" r="512" s="1" spans="1:3">
+      <c r="A512" t="s"/>
+    </row>
+    <row hidden="1" r="513" s="1" spans="1:3">
+      <c r="A513" t="s"/>
+    </row>
+    <row hidden="1" r="514" s="1" spans="1:3">
+      <c r="A514" t="s"/>
+    </row>
+    <row hidden="1" r="515" s="1" spans="1:3">
+      <c r="A515" t="s"/>
+    </row>
+    <row hidden="1" r="516" s="1" spans="1:3">
+      <c r="A516" t="s"/>
+    </row>
     <row r="517" s="1" spans="1:3">
       <c r="A517" t="s">
         <v>931</v>
@@ -37990,6 +39328,9 @@
         <v>2851</v>
       </c>
     </row>
+    <row hidden="1" r="518" s="1" spans="1:3">
+      <c r="A518" t="s"/>
+    </row>
     <row r="519" s="1" spans="1:3">
       <c r="A519" t="s">
         <v>936</v>
@@ -38012,6 +39353,45 @@
         <v>2855</v>
       </c>
     </row>
+    <row hidden="1" r="521" s="1" spans="1:3">
+      <c r="A521" t="s"/>
+    </row>
+    <row hidden="1" r="522" s="1" spans="1:3">
+      <c r="A522" t="s"/>
+    </row>
+    <row hidden="1" r="523" s="1" spans="1:3">
+      <c r="A523" t="s"/>
+    </row>
+    <row hidden="1" r="524" s="1" spans="1:3">
+      <c r="A524" t="s"/>
+    </row>
+    <row hidden="1" r="525" s="1" spans="1:3">
+      <c r="A525" t="s"/>
+    </row>
+    <row hidden="1" r="526" s="1" spans="1:3">
+      <c r="A526" t="s"/>
+    </row>
+    <row hidden="1" r="527" s="1" spans="1:3">
+      <c r="A527" t="s"/>
+    </row>
+    <row hidden="1" r="528" s="1" spans="1:3">
+      <c r="A528" t="s"/>
+    </row>
+    <row hidden="1" r="529" s="1" spans="1:3">
+      <c r="A529" t="s"/>
+    </row>
+    <row hidden="1" r="530" s="1" spans="1:3">
+      <c r="A530" t="s"/>
+    </row>
+    <row hidden="1" r="531" s="1" spans="1:3">
+      <c r="A531" t="s"/>
+    </row>
+    <row hidden="1" r="532" s="1" spans="1:3">
+      <c r="A532" t="s"/>
+    </row>
+    <row hidden="1" r="533" s="1" spans="1:3">
+      <c r="A533" t="s"/>
+    </row>
     <row r="534" s="1" spans="1:3">
       <c r="A534" t="s">
         <v>971</v>
@@ -38034,6 +39414,33 @@
         <v>2857</v>
       </c>
     </row>
+    <row hidden="1" r="536" s="1" spans="1:3">
+      <c r="A536" t="s"/>
+    </row>
+    <row hidden="1" r="537" s="1" spans="1:3">
+      <c r="A537" t="s"/>
+    </row>
+    <row hidden="1" r="538" s="1" spans="1:3">
+      <c r="A538" t="s"/>
+    </row>
+    <row hidden="1" r="539" s="1" spans="1:3">
+      <c r="A539" t="s"/>
+    </row>
+    <row hidden="1" r="540" s="1" spans="1:3">
+      <c r="A540" t="s"/>
+    </row>
+    <row hidden="1" r="541" s="1" spans="1:3">
+      <c r="A541" t="s"/>
+    </row>
+    <row hidden="1" r="542" s="1" spans="1:3">
+      <c r="A542" t="s"/>
+    </row>
+    <row hidden="1" r="543" s="1" spans="1:3">
+      <c r="A543" t="s"/>
+    </row>
+    <row hidden="1" r="544" s="1" spans="1:3">
+      <c r="A544" t="s"/>
+    </row>
     <row r="545" s="1" spans="1:3">
       <c r="A545" t="s">
         <v>352</v>
@@ -38045,6 +39452,18 @@
         <v>2859</v>
       </c>
     </row>
+    <row hidden="1" r="546" s="1" spans="1:3">
+      <c r="A546" t="s"/>
+    </row>
+    <row hidden="1" r="547" s="1" spans="1:3">
+      <c r="A547" t="s"/>
+    </row>
+    <row hidden="1" r="548" s="1" spans="1:3">
+      <c r="A548" t="s"/>
+    </row>
+    <row hidden="1" r="549" s="1" spans="1:3">
+      <c r="A549" t="s"/>
+    </row>
     <row r="550" s="1" spans="1:3">
       <c r="A550" t="s">
         <v>1003</v>
@@ -38056,6 +39475,9 @@
         <v>2861</v>
       </c>
     </row>
+    <row hidden="1" r="551" s="1" spans="1:3">
+      <c r="A551" t="s"/>
+    </row>
     <row r="552" s="1" spans="1:3">
       <c r="A552" t="s">
         <v>1003</v>
@@ -38067,6 +39489,24 @@
         <v>2863</v>
       </c>
     </row>
+    <row hidden="1" r="553" s="1" spans="1:3">
+      <c r="A553" t="s"/>
+    </row>
+    <row hidden="1" r="554" s="1" spans="1:3">
+      <c r="A554" t="s"/>
+    </row>
+    <row hidden="1" r="555" s="1" spans="1:3">
+      <c r="A555" t="s"/>
+    </row>
+    <row hidden="1" r="556" s="1" spans="1:3">
+      <c r="A556" t="s"/>
+    </row>
+    <row hidden="1" r="557" s="1" spans="1:3">
+      <c r="A557" t="s"/>
+    </row>
+    <row hidden="1" r="558" s="1" spans="1:3">
+      <c r="A558" t="s"/>
+    </row>
     <row r="559" s="1" spans="1:3">
       <c r="A559" t="s">
         <v>1023</v>
@@ -38100,6 +39540,18 @@
         <v>2865</v>
       </c>
     </row>
+    <row hidden="1" r="562" s="1" spans="1:3">
+      <c r="A562" t="s"/>
+    </row>
+    <row hidden="1" r="563" s="1" spans="1:3">
+      <c r="A563" t="s"/>
+    </row>
+    <row hidden="1" r="564" s="1" spans="1:3">
+      <c r="A564" t="s"/>
+    </row>
+    <row hidden="1" r="565" s="1" spans="1:3">
+      <c r="A565" t="s"/>
+    </row>
     <row r="566" s="1" spans="1:3">
       <c r="A566" t="s">
         <v>921</v>
@@ -38111,6 +39563,39 @@
         <v>2867</v>
       </c>
     </row>
+    <row hidden="1" r="567" s="1" spans="1:3">
+      <c r="A567" t="s"/>
+    </row>
+    <row hidden="1" r="568" s="1" spans="1:3">
+      <c r="A568" t="s"/>
+    </row>
+    <row hidden="1" r="569" s="1" spans="1:3">
+      <c r="A569" t="s"/>
+    </row>
+    <row hidden="1" r="570" s="1" spans="1:3">
+      <c r="A570" t="s"/>
+    </row>
+    <row hidden="1" r="571" s="1" spans="1:3">
+      <c r="A571" t="s"/>
+    </row>
+    <row hidden="1" r="572" s="1" spans="1:3">
+      <c r="A572" t="s"/>
+    </row>
+    <row hidden="1" r="573" s="1" spans="1:3">
+      <c r="A573" t="s"/>
+    </row>
+    <row hidden="1" r="574" s="1" spans="1:3">
+      <c r="A574" t="s"/>
+    </row>
+    <row hidden="1" r="575" s="1" spans="1:3">
+      <c r="A575" t="s"/>
+    </row>
+    <row hidden="1" r="576" s="1" spans="1:3">
+      <c r="A576" t="s"/>
+    </row>
+    <row hidden="1" r="577" s="1" spans="1:3">
+      <c r="A577" t="s"/>
+    </row>
     <row r="578" s="1" spans="1:3">
       <c r="A578" t="s">
         <v>347</v>
@@ -38120,6 +39605,9 @@
       </c>
       <c r="C578" t="s"/>
     </row>
+    <row hidden="1" r="579" s="1" spans="1:3">
+      <c r="A579" t="s"/>
+    </row>
     <row r="580" s="1" spans="1:3">
       <c r="A580" t="s">
         <v>347</v>
@@ -38142,6 +39630,12 @@
         <v>2870</v>
       </c>
     </row>
+    <row hidden="1" r="582" s="1" spans="1:3">
+      <c r="A582" t="s"/>
+    </row>
+    <row hidden="1" r="583" s="1" spans="1:3">
+      <c r="A583" t="s"/>
+    </row>
     <row r="584" s="1" spans="1:3">
       <c r="A584" t="s">
         <v>1067</v>
@@ -38153,6 +39647,21 @@
         <v>2872</v>
       </c>
     </row>
+    <row hidden="1" r="585" s="1" spans="1:3">
+      <c r="A585" t="s"/>
+    </row>
+    <row hidden="1" r="586" s="1" spans="1:3">
+      <c r="A586" t="s"/>
+    </row>
+    <row hidden="1" r="587" s="1" spans="1:3">
+      <c r="A587" t="s"/>
+    </row>
+    <row hidden="1" r="588" s="1" spans="1:3">
+      <c r="A588" t="s"/>
+    </row>
+    <row hidden="1" r="589" s="1" spans="1:3">
+      <c r="A589" t="s"/>
+    </row>
     <row r="590" s="1" spans="1:3">
       <c r="A590" t="s">
         <v>896</v>
@@ -38164,6 +39673,21 @@
         <v>2874</v>
       </c>
     </row>
+    <row hidden="1" r="591" s="1" spans="1:3">
+      <c r="A591" t="s"/>
+    </row>
+    <row hidden="1" r="592" s="1" spans="1:3">
+      <c r="A592" t="s"/>
+    </row>
+    <row hidden="1" r="593" s="1" spans="1:3">
+      <c r="A593" t="s"/>
+    </row>
+    <row hidden="1" r="594" s="1" spans="1:3">
+      <c r="A594" t="s"/>
+    </row>
+    <row hidden="1" r="595" s="1" spans="1:3">
+      <c r="A595" t="s"/>
+    </row>
     <row r="596" s="1" spans="1:3">
       <c r="A596" t="s">
         <v>1086</v>
@@ -38186,6 +39710,36 @@
         <v>2876</v>
       </c>
     </row>
+    <row hidden="1" r="598" s="1" spans="1:3">
+      <c r="A598" t="s"/>
+    </row>
+    <row hidden="1" r="599" s="1" spans="1:3">
+      <c r="A599" t="s"/>
+    </row>
+    <row hidden="1" r="600" s="1" spans="1:3">
+      <c r="A600" t="s"/>
+    </row>
+    <row hidden="1" r="601" s="1" spans="1:3">
+      <c r="A601" t="s"/>
+    </row>
+    <row hidden="1" r="602" s="1" spans="1:3">
+      <c r="A602" t="s"/>
+    </row>
+    <row hidden="1" r="603" s="1" spans="1:3">
+      <c r="A603" t="s"/>
+    </row>
+    <row hidden="1" r="604" s="1" spans="1:3">
+      <c r="A604" t="s"/>
+    </row>
+    <row hidden="1" r="605" s="1" spans="1:3">
+      <c r="A605" t="s"/>
+    </row>
+    <row hidden="1" r="606" s="1" spans="1:3">
+      <c r="A606" t="s"/>
+    </row>
+    <row hidden="1" r="607" s="1" spans="1:3">
+      <c r="A607" t="s"/>
+    </row>
     <row r="608" s="1" spans="1:3">
       <c r="A608" t="s">
         <v>1103</v>
@@ -38197,6 +39751,54 @@
         <v>2878</v>
       </c>
     </row>
+    <row hidden="1" r="609" s="1" spans="1:3">
+      <c r="A609" t="s"/>
+    </row>
+    <row hidden="1" r="610" s="1" spans="1:3">
+      <c r="A610" t="s"/>
+    </row>
+    <row hidden="1" r="611" s="1" spans="1:3">
+      <c r="A611" t="s"/>
+    </row>
+    <row hidden="1" r="612" s="1" spans="1:3">
+      <c r="A612" t="s"/>
+    </row>
+    <row hidden="1" r="613" s="1" spans="1:3">
+      <c r="A613" t="s"/>
+    </row>
+    <row hidden="1" r="614" s="1" spans="1:3">
+      <c r="A614" t="s"/>
+    </row>
+    <row hidden="1" r="615" s="1" spans="1:3">
+      <c r="A615" t="s"/>
+    </row>
+    <row hidden="1" r="616" s="1" spans="1:3">
+      <c r="A616" t="s"/>
+    </row>
+    <row hidden="1" r="617" s="1" spans="1:3">
+      <c r="A617" t="s"/>
+    </row>
+    <row hidden="1" r="618" s="1" spans="1:3">
+      <c r="A618" t="s"/>
+    </row>
+    <row hidden="1" r="619" s="1" spans="1:3">
+      <c r="A619" t="s"/>
+    </row>
+    <row hidden="1" r="620" s="1" spans="1:3">
+      <c r="A620" t="s"/>
+    </row>
+    <row hidden="1" r="621" s="1" spans="1:3">
+      <c r="A621" t="s"/>
+    </row>
+    <row hidden="1" r="622" s="1" spans="1:3">
+      <c r="A622" t="s"/>
+    </row>
+    <row hidden="1" r="623" s="1" spans="1:3">
+      <c r="A623" t="s"/>
+    </row>
+    <row hidden="1" r="624" s="1" spans="1:3">
+      <c r="A624" t="s"/>
+    </row>
     <row r="625" s="1" spans="1:3">
       <c r="A625" t="s">
         <v>84</v>
@@ -38208,6 +39810,24 @@
         <v>2880</v>
       </c>
     </row>
+    <row hidden="1" r="626" s="1" spans="1:3">
+      <c r="A626" t="s"/>
+    </row>
+    <row hidden="1" r="627" s="1" spans="1:3">
+      <c r="A627" t="s"/>
+    </row>
+    <row hidden="1" r="628" s="1" spans="1:3">
+      <c r="A628" t="s"/>
+    </row>
+    <row hidden="1" r="629" s="1" spans="1:3">
+      <c r="A629" t="s"/>
+    </row>
+    <row hidden="1" r="630" s="1" spans="1:3">
+      <c r="A630" t="s"/>
+    </row>
+    <row hidden="1" r="631" s="1" spans="1:3">
+      <c r="A631" t="s"/>
+    </row>
     <row r="632" s="1" spans="1:3">
       <c r="A632" t="s">
         <v>84</v>
@@ -38219,6 +39839,12 @@
         <v>2882</v>
       </c>
     </row>
+    <row hidden="1" r="633" s="1" spans="1:3">
+      <c r="A633" t="s"/>
+    </row>
+    <row hidden="1" r="634" s="1" spans="1:3">
+      <c r="A634" t="s"/>
+    </row>
     <row r="635" s="1" spans="1:3">
       <c r="A635" t="s">
         <v>84</v>
@@ -38230,6 +39856,72 @@
         <v>2882</v>
       </c>
     </row>
+    <row hidden="1" r="636" s="1" spans="1:3">
+      <c r="A636" t="s"/>
+    </row>
+    <row hidden="1" r="637" s="1" spans="1:3">
+      <c r="A637" t="s"/>
+    </row>
+    <row hidden="1" r="638" s="1" spans="1:3">
+      <c r="A638" t="s"/>
+    </row>
+    <row hidden="1" r="639" s="1" spans="1:3">
+      <c r="A639" t="s"/>
+    </row>
+    <row hidden="1" r="640" s="1" spans="1:3">
+      <c r="A640" t="s"/>
+    </row>
+    <row hidden="1" r="641" s="1" spans="1:3">
+      <c r="A641" t="s"/>
+    </row>
+    <row hidden="1" r="642" s="1" spans="1:3">
+      <c r="A642" t="s"/>
+    </row>
+    <row hidden="1" r="643" s="1" spans="1:3">
+      <c r="A643" t="s"/>
+    </row>
+    <row hidden="1" r="644" s="1" spans="1:3">
+      <c r="A644" t="s"/>
+    </row>
+    <row hidden="1" r="645" s="1" spans="1:3">
+      <c r="A645" t="s"/>
+    </row>
+    <row hidden="1" r="646" s="1" spans="1:3">
+      <c r="A646" t="s"/>
+    </row>
+    <row hidden="1" r="647" s="1" spans="1:3">
+      <c r="A647" t="s"/>
+    </row>
+    <row hidden="1" r="648" s="1" spans="1:3">
+      <c r="A648" t="s"/>
+    </row>
+    <row hidden="1" r="649" s="1" spans="1:3">
+      <c r="A649" t="s"/>
+    </row>
+    <row hidden="1" r="650" s="1" spans="1:3">
+      <c r="A650" t="s"/>
+    </row>
+    <row hidden="1" r="651" s="1" spans="1:3">
+      <c r="A651" t="s"/>
+    </row>
+    <row hidden="1" r="652" s="1" spans="1:3">
+      <c r="A652" t="s"/>
+    </row>
+    <row hidden="1" r="653" s="1" spans="1:3">
+      <c r="A653" t="s"/>
+    </row>
+    <row hidden="1" r="654" s="1" spans="1:3">
+      <c r="A654" t="s"/>
+    </row>
+    <row hidden="1" r="655" s="1" spans="1:3">
+      <c r="A655" t="s"/>
+    </row>
+    <row hidden="1" r="656" s="1" spans="1:3">
+      <c r="A656" t="s"/>
+    </row>
+    <row hidden="1" r="657" s="1" spans="1:3">
+      <c r="A657" t="s"/>
+    </row>
     <row r="658" s="1" spans="1:3">
       <c r="A658" t="s">
         <v>1182</v>
@@ -38241,6 +39933,30 @@
         <v>2884</v>
       </c>
     </row>
+    <row hidden="1" r="659" s="1" spans="1:3">
+      <c r="A659" t="s"/>
+    </row>
+    <row hidden="1" r="660" s="1" spans="1:3">
+      <c r="A660" t="s"/>
+    </row>
+    <row hidden="1" r="661" s="1" spans="1:3">
+      <c r="A661" t="s"/>
+    </row>
+    <row hidden="1" r="662" s="1" spans="1:3">
+      <c r="A662" t="s"/>
+    </row>
+    <row hidden="1" r="663" s="1" spans="1:3">
+      <c r="A663" t="s"/>
+    </row>
+    <row hidden="1" r="664" s="1" spans="1:3">
+      <c r="A664" t="s"/>
+    </row>
+    <row hidden="1" r="665" s="1" spans="1:3">
+      <c r="A665" t="s"/>
+    </row>
+    <row hidden="1" r="666" s="1" spans="1:3">
+      <c r="A666" t="s"/>
+    </row>
     <row r="667" s="1" spans="1:3">
       <c r="A667" t="s">
         <v>126</v>
@@ -38252,6 +39968,18 @@
         <v>2886</v>
       </c>
     </row>
+    <row hidden="1" r="668" s="1" spans="1:3">
+      <c r="A668" t="s"/>
+    </row>
+    <row hidden="1" r="669" s="1" spans="1:3">
+      <c r="A669" t="s"/>
+    </row>
+    <row hidden="1" r="670" s="1" spans="1:3">
+      <c r="A670" t="s"/>
+    </row>
+    <row hidden="1" r="671" s="1" spans="1:3">
+      <c r="A671" t="s"/>
+    </row>
     <row r="672" s="1" spans="1:3">
       <c r="A672" t="s">
         <v>1209</v>
@@ -38263,6 +39991,42 @@
         <v>2888</v>
       </c>
     </row>
+    <row hidden="1" r="673" s="1" spans="1:3">
+      <c r="A673" t="s"/>
+    </row>
+    <row hidden="1" r="674" s="1" spans="1:3">
+      <c r="A674" t="s"/>
+    </row>
+    <row hidden="1" r="675" s="1" spans="1:3">
+      <c r="A675" t="s"/>
+    </row>
+    <row hidden="1" r="676" s="1" spans="1:3">
+      <c r="A676" t="s"/>
+    </row>
+    <row hidden="1" r="677" s="1" spans="1:3">
+      <c r="A677" t="s"/>
+    </row>
+    <row hidden="1" r="678" s="1" spans="1:3">
+      <c r="A678" t="s"/>
+    </row>
+    <row hidden="1" r="679" s="1" spans="1:3">
+      <c r="A679" t="s"/>
+    </row>
+    <row hidden="1" r="680" s="1" spans="1:3">
+      <c r="A680" t="s"/>
+    </row>
+    <row hidden="1" r="681" s="1" spans="1:3">
+      <c r="A681" t="s"/>
+    </row>
+    <row hidden="1" r="682" s="1" spans="1:3">
+      <c r="A682" t="s"/>
+    </row>
+    <row hidden="1" r="683" s="1" spans="1:3">
+      <c r="A683" t="s"/>
+    </row>
+    <row hidden="1" r="684" s="1" spans="1:3">
+      <c r="A684" t="s"/>
+    </row>
     <row r="685" s="1" spans="1:3">
       <c r="A685" t="s">
         <v>192</v>
@@ -38274,6 +40038,36 @@
         <v>2890</v>
       </c>
     </row>
+    <row hidden="1" r="686" s="1" spans="1:3">
+      <c r="A686" t="s"/>
+    </row>
+    <row hidden="1" r="687" s="1" spans="1:3">
+      <c r="A687" t="s"/>
+    </row>
+    <row hidden="1" r="688" s="1" spans="1:3">
+      <c r="A688" t="s"/>
+    </row>
+    <row hidden="1" r="689" s="1" spans="1:3">
+      <c r="A689" t="s"/>
+    </row>
+    <row hidden="1" r="690" s="1" spans="1:3">
+      <c r="A690" t="s"/>
+    </row>
+    <row hidden="1" r="691" s="1" spans="1:3">
+      <c r="A691" t="s"/>
+    </row>
+    <row hidden="1" r="692" s="1" spans="1:3">
+      <c r="A692" t="s"/>
+    </row>
+    <row hidden="1" r="693" s="1" spans="1:3">
+      <c r="A693" t="s"/>
+    </row>
+    <row hidden="1" r="694" s="1" spans="1:3">
+      <c r="A694" t="s"/>
+    </row>
+    <row hidden="1" r="695" s="1" spans="1:3">
+      <c r="A695" t="s"/>
+    </row>
     <row r="696" s="1" spans="1:3">
       <c r="A696" t="s">
         <v>451</v>
@@ -38285,6 +40079,21 @@
         <v>2892</v>
       </c>
     </row>
+    <row hidden="1" r="697" s="1" spans="1:3">
+      <c r="A697" t="s"/>
+    </row>
+    <row hidden="1" r="698" s="1" spans="1:3">
+      <c r="A698" t="s"/>
+    </row>
+    <row hidden="1" r="699" s="1" spans="1:3">
+      <c r="A699" t="s"/>
+    </row>
+    <row hidden="1" r="700" s="1" spans="1:3">
+      <c r="A700" t="s"/>
+    </row>
+    <row hidden="1" r="701" s="1" spans="1:3">
+      <c r="A701" t="s"/>
+    </row>
     <row r="702" s="1" spans="1:3">
       <c r="A702" t="s">
         <v>402</v>
@@ -38296,6 +40105,21 @@
         <v>2894</v>
       </c>
     </row>
+    <row hidden="1" r="703" s="1" spans="1:3">
+      <c r="A703" t="s"/>
+    </row>
+    <row hidden="1" r="704" s="1" spans="1:3">
+      <c r="A704" t="s"/>
+    </row>
+    <row hidden="1" r="705" s="1" spans="1:3">
+      <c r="A705" t="s"/>
+    </row>
+    <row hidden="1" r="706" s="1" spans="1:3">
+      <c r="A706" t="s"/>
+    </row>
+    <row hidden="1" r="707" s="1" spans="1:3">
+      <c r="A707" t="s"/>
+    </row>
     <row r="708" s="1" spans="1:3">
       <c r="A708" t="s">
         <v>1281</v>
@@ -38307,6 +40131,30 @@
         <v>2896</v>
       </c>
     </row>
+    <row hidden="1" r="709" s="1" spans="1:3">
+      <c r="A709" t="s"/>
+    </row>
+    <row hidden="1" r="710" s="1" spans="1:3">
+      <c r="A710" t="s"/>
+    </row>
+    <row hidden="1" r="711" s="1" spans="1:3">
+      <c r="A711" t="s"/>
+    </row>
+    <row hidden="1" r="712" s="1" spans="1:3">
+      <c r="A712" t="s"/>
+    </row>
+    <row hidden="1" r="713" s="1" spans="1:3">
+      <c r="A713" t="s"/>
+    </row>
+    <row hidden="1" r="714" s="1" spans="1:3">
+      <c r="A714" t="s"/>
+    </row>
+    <row hidden="1" r="715" s="1" spans="1:3">
+      <c r="A715" t="s"/>
+    </row>
+    <row hidden="1" r="716" s="1" spans="1:3">
+      <c r="A716" t="s"/>
+    </row>
     <row r="717" s="1" spans="1:3">
       <c r="A717" t="s">
         <v>742</v>
@@ -38318,6 +40166,36 @@
         <v>2898</v>
       </c>
     </row>
+    <row hidden="1" r="718" s="1" spans="1:3">
+      <c r="A718" t="s"/>
+    </row>
+    <row hidden="1" r="719" s="1" spans="1:3">
+      <c r="A719" t="s"/>
+    </row>
+    <row hidden="1" r="720" s="1" spans="1:3">
+      <c r="A720" t="s"/>
+    </row>
+    <row hidden="1" r="721" s="1" spans="1:3">
+      <c r="A721" t="s"/>
+    </row>
+    <row hidden="1" r="722" s="1" spans="1:3">
+      <c r="A722" t="s"/>
+    </row>
+    <row hidden="1" r="723" s="1" spans="1:3">
+      <c r="A723" t="s"/>
+    </row>
+    <row hidden="1" r="724" s="1" spans="1:3">
+      <c r="A724" t="s"/>
+    </row>
+    <row hidden="1" r="725" s="1" spans="1:3">
+      <c r="A725" t="s"/>
+    </row>
+    <row hidden="1" r="726" s="1" spans="1:3">
+      <c r="A726" t="s"/>
+    </row>
+    <row hidden="1" r="727" s="1" spans="1:3">
+      <c r="A727" t="s"/>
+    </row>
     <row r="728" s="1" spans="1:3">
       <c r="A728" t="s">
         <v>1320</v>
@@ -38329,6 +40207,21 @@
         <v>2900</v>
       </c>
     </row>
+    <row hidden="1" r="729" s="1" spans="1:3">
+      <c r="A729" t="s"/>
+    </row>
+    <row hidden="1" r="730" s="1" spans="1:3">
+      <c r="A730" t="s"/>
+    </row>
+    <row hidden="1" r="731" s="1" spans="1:3">
+      <c r="A731" t="s"/>
+    </row>
+    <row hidden="1" r="732" s="1" spans="1:3">
+      <c r="A732" t="s"/>
+    </row>
+    <row hidden="1" r="733" s="1" spans="1:3">
+      <c r="A733" t="s"/>
+    </row>
     <row r="734" s="1" spans="1:3">
       <c r="A734" t="s">
         <v>1332</v>
@@ -38340,6 +40233,15 @@
         <v>2902</v>
       </c>
     </row>
+    <row hidden="1" r="735" s="1" spans="1:3">
+      <c r="A735" t="s"/>
+    </row>
+    <row hidden="1" r="736" s="1" spans="1:3">
+      <c r="A736" t="s"/>
+    </row>
+    <row hidden="1" r="737" s="1" spans="1:3">
+      <c r="A737" t="s"/>
+    </row>
     <row r="738" s="1" spans="1:3">
       <c r="A738" t="s">
         <v>1338</v>
@@ -38351,6 +40253,18 @@
         <v>2904</v>
       </c>
     </row>
+    <row hidden="1" r="739" s="1" spans="1:3">
+      <c r="A739" t="s"/>
+    </row>
+    <row hidden="1" r="740" s="1" spans="1:3">
+      <c r="A740" t="s"/>
+    </row>
+    <row hidden="1" r="741" s="1" spans="1:3">
+      <c r="A741" t="s"/>
+    </row>
+    <row hidden="1" r="742" s="1" spans="1:3">
+      <c r="A742" t="s"/>
+    </row>
     <row r="743" s="1" spans="1:3">
       <c r="A743" t="s">
         <v>417</v>
@@ -38362,6 +40276,93 @@
         <v>2906</v>
       </c>
     </row>
+    <row hidden="1" r="744" s="1" spans="1:3">
+      <c r="A744" t="s"/>
+    </row>
+    <row hidden="1" r="745" s="1" spans="1:3">
+      <c r="A745" t="s"/>
+    </row>
+    <row hidden="1" r="746" s="1" spans="1:3">
+      <c r="A746" t="s"/>
+    </row>
+    <row hidden="1" r="747" s="1" spans="1:3">
+      <c r="A747" t="s"/>
+    </row>
+    <row hidden="1" r="748" s="1" spans="1:3">
+      <c r="A748" t="s"/>
+    </row>
+    <row hidden="1" r="749" s="1" spans="1:3">
+      <c r="A749" t="s"/>
+    </row>
+    <row hidden="1" r="750" s="1" spans="1:3">
+      <c r="A750" t="s"/>
+    </row>
+    <row hidden="1" r="751" s="1" spans="1:3">
+      <c r="A751" t="s"/>
+    </row>
+    <row hidden="1" r="752" s="1" spans="1:3">
+      <c r="A752" t="s"/>
+    </row>
+    <row hidden="1" r="753" s="1" spans="1:3">
+      <c r="A753" t="s"/>
+    </row>
+    <row hidden="1" r="754" s="1" spans="1:3">
+      <c r="A754" t="s"/>
+    </row>
+    <row hidden="1" r="755" s="1" spans="1:3">
+      <c r="A755" t="s"/>
+    </row>
+    <row hidden="1" r="756" s="1" spans="1:3">
+      <c r="A756" t="s"/>
+    </row>
+    <row hidden="1" r="757" s="1" spans="1:3">
+      <c r="A757" t="s"/>
+    </row>
+    <row hidden="1" r="758" s="1" spans="1:3">
+      <c r="A758" t="s"/>
+    </row>
+    <row hidden="1" r="759" s="1" spans="1:3">
+      <c r="A759" t="s"/>
+    </row>
+    <row hidden="1" r="760" s="1" spans="1:3">
+      <c r="A760" t="s"/>
+    </row>
+    <row hidden="1" r="761" s="1" spans="1:3">
+      <c r="A761" t="s"/>
+    </row>
+    <row hidden="1" r="762" s="1" spans="1:3">
+      <c r="A762" t="s"/>
+    </row>
+    <row hidden="1" r="763" s="1" spans="1:3">
+      <c r="A763" t="s"/>
+    </row>
+    <row hidden="1" r="764" s="1" spans="1:3">
+      <c r="A764" t="s"/>
+    </row>
+    <row hidden="1" r="765" s="1" spans="1:3">
+      <c r="A765" t="s"/>
+    </row>
+    <row hidden="1" r="766" s="1" spans="1:3">
+      <c r="A766" t="s"/>
+    </row>
+    <row hidden="1" r="767" s="1" spans="1:3">
+      <c r="A767" t="s"/>
+    </row>
+    <row hidden="1" r="768" s="1" spans="1:3">
+      <c r="A768" t="s"/>
+    </row>
+    <row hidden="1" r="769" s="1" spans="1:3">
+      <c r="A769" t="s"/>
+    </row>
+    <row hidden="1" r="770" s="1" spans="1:3">
+      <c r="A770" t="s"/>
+    </row>
+    <row hidden="1" r="771" s="1" spans="1:3">
+      <c r="A771" t="s"/>
+    </row>
+    <row hidden="1" r="772" s="1" spans="1:3">
+      <c r="A772" t="s"/>
+    </row>
     <row r="773" s="1" spans="1:3">
       <c r="A773" t="s">
         <v>1407</v>
@@ -38384,6 +40385,30 @@
         <v>2910</v>
       </c>
     </row>
+    <row hidden="1" r="775" s="1" spans="1:3">
+      <c r="A775" t="s"/>
+    </row>
+    <row hidden="1" r="776" s="1" spans="1:3">
+      <c r="A776" t="s"/>
+    </row>
+    <row hidden="1" r="777" s="1" spans="1:3">
+      <c r="A777" t="s"/>
+    </row>
+    <row hidden="1" r="778" s="1" spans="1:3">
+      <c r="A778" t="s"/>
+    </row>
+    <row hidden="1" r="779" s="1" spans="1:3">
+      <c r="A779" t="s"/>
+    </row>
+    <row hidden="1" r="780" s="1" spans="1:3">
+      <c r="A780" t="s"/>
+    </row>
+    <row hidden="1" r="781" s="1" spans="1:3">
+      <c r="A781" t="s"/>
+    </row>
+    <row hidden="1" r="782" s="1" spans="1:3">
+      <c r="A782" t="s"/>
+    </row>
     <row r="783" s="1" spans="1:3">
       <c r="A783" t="s">
         <v>1425</v>
@@ -38404,6 +40429,33 @@
       </c>
       <c r="C784" t="s"/>
     </row>
+    <row hidden="1" r="785" s="1" spans="1:3">
+      <c r="A785" t="s"/>
+    </row>
+    <row hidden="1" r="786" s="1" spans="1:3">
+      <c r="A786" t="s"/>
+    </row>
+    <row hidden="1" r="787" s="1" spans="1:3">
+      <c r="A787" t="s"/>
+    </row>
+    <row hidden="1" r="788" s="1" spans="1:3">
+      <c r="A788" t="s"/>
+    </row>
+    <row hidden="1" r="789" s="1" spans="1:3">
+      <c r="A789" t="s"/>
+    </row>
+    <row hidden="1" r="790" s="1" spans="1:3">
+      <c r="A790" t="s"/>
+    </row>
+    <row hidden="1" r="791" s="1" spans="1:3">
+      <c r="A791" t="s"/>
+    </row>
+    <row hidden="1" r="792" s="1" spans="1:3">
+      <c r="A792" t="s"/>
+    </row>
+    <row hidden="1" r="793" s="1" spans="1:3">
+      <c r="A793" t="s"/>
+    </row>
     <row r="794" s="1" spans="1:3">
       <c r="A794" t="s">
         <v>782</v>
@@ -38415,6 +40467,27 @@
         <v>2915</v>
       </c>
     </row>
+    <row hidden="1" r="795" s="1" spans="1:3">
+      <c r="A795" t="s"/>
+    </row>
+    <row hidden="1" r="796" s="1" spans="1:3">
+      <c r="A796" t="s"/>
+    </row>
+    <row hidden="1" r="797" s="1" spans="1:3">
+      <c r="A797" t="s"/>
+    </row>
+    <row hidden="1" r="798" s="1" spans="1:3">
+      <c r="A798" t="s"/>
+    </row>
+    <row hidden="1" r="799" s="1" spans="1:3">
+      <c r="A799" t="s"/>
+    </row>
+    <row hidden="1" r="800" s="1" spans="1:3">
+      <c r="A800" t="s"/>
+    </row>
+    <row hidden="1" r="801" s="1" spans="1:3">
+      <c r="A801" t="s"/>
+    </row>
     <row r="802" s="1" spans="1:3">
       <c r="A802" t="s">
         <v>1466</v>
@@ -38426,6 +40499,18 @@
         <v>2917</v>
       </c>
     </row>
+    <row hidden="1" r="803" s="1" spans="1:3">
+      <c r="A803" t="s"/>
+    </row>
+    <row hidden="1" r="804" s="1" spans="1:3">
+      <c r="A804" t="s"/>
+    </row>
+    <row hidden="1" r="805" s="1" spans="1:3">
+      <c r="A805" t="s"/>
+    </row>
+    <row hidden="1" r="806" s="1" spans="1:3">
+      <c r="A806" t="s"/>
+    </row>
     <row r="807" s="1" spans="1:3">
       <c r="A807" t="s">
         <v>1479</v>
@@ -38437,6 +40522,33 @@
         <v>2919</v>
       </c>
     </row>
+    <row hidden="1" r="808" s="1" spans="1:3">
+      <c r="A808" t="s"/>
+    </row>
+    <row hidden="1" r="809" s="1" spans="1:3">
+      <c r="A809" t="s"/>
+    </row>
+    <row hidden="1" r="810" s="1" spans="1:3">
+      <c r="A810" t="s"/>
+    </row>
+    <row hidden="1" r="811" s="1" spans="1:3">
+      <c r="A811" t="s"/>
+    </row>
+    <row hidden="1" r="812" s="1" spans="1:3">
+      <c r="A812" t="s"/>
+    </row>
+    <row hidden="1" r="813" s="1" spans="1:3">
+      <c r="A813" t="s"/>
+    </row>
+    <row hidden="1" r="814" s="1" spans="1:3">
+      <c r="A814" t="s"/>
+    </row>
+    <row hidden="1" r="815" s="1" spans="1:3">
+      <c r="A815" t="s"/>
+    </row>
+    <row hidden="1" r="816" s="1" spans="1:3">
+      <c r="A816" t="s"/>
+    </row>
     <row r="817" s="1" spans="1:3">
       <c r="A817" t="s">
         <v>1503</v>
@@ -38448,6 +40560,24 @@
         <v>2921</v>
       </c>
     </row>
+    <row hidden="1" r="818" s="1" spans="1:3">
+      <c r="A818" t="s"/>
+    </row>
+    <row hidden="1" r="819" s="1" spans="1:3">
+      <c r="A819" t="s"/>
+    </row>
+    <row hidden="1" r="820" s="1" spans="1:3">
+      <c r="A820" t="s"/>
+    </row>
+    <row hidden="1" r="821" s="1" spans="1:3">
+      <c r="A821" t="s"/>
+    </row>
+    <row hidden="1" r="822" s="1" spans="1:3">
+      <c r="A822" t="s"/>
+    </row>
+    <row hidden="1" r="823" s="1" spans="1:3">
+      <c r="A823" t="s"/>
+    </row>
     <row r="824" s="1" spans="1:3">
       <c r="A824" t="s">
         <v>1517</v>
@@ -38459,6 +40589,21 @@
         <v>2923</v>
       </c>
     </row>
+    <row hidden="1" r="825" s="1" spans="1:3">
+      <c r="A825" t="s"/>
+    </row>
+    <row hidden="1" r="826" s="1" spans="1:3">
+      <c r="A826" t="s"/>
+    </row>
+    <row hidden="1" r="827" s="1" spans="1:3">
+      <c r="A827" t="s"/>
+    </row>
+    <row hidden="1" r="828" s="1" spans="1:3">
+      <c r="A828" t="s"/>
+    </row>
+    <row hidden="1" r="829" s="1" spans="1:3">
+      <c r="A829" t="s"/>
+    </row>
     <row r="830" s="1" spans="1:3">
       <c r="A830" t="s">
         <v>345</v>
@@ -38470,6 +40615,27 @@
         <v>2925</v>
       </c>
     </row>
+    <row hidden="1" r="831" s="1" spans="1:3">
+      <c r="A831" t="s"/>
+    </row>
+    <row hidden="1" r="832" s="1" spans="1:3">
+      <c r="A832" t="s"/>
+    </row>
+    <row hidden="1" r="833" s="1" spans="1:3">
+      <c r="A833" t="s"/>
+    </row>
+    <row hidden="1" r="834" s="1" spans="1:3">
+      <c r="A834" t="s"/>
+    </row>
+    <row hidden="1" r="835" s="1" spans="1:3">
+      <c r="A835" t="s"/>
+    </row>
+    <row hidden="1" r="836" s="1" spans="1:3">
+      <c r="A836" t="s"/>
+    </row>
+    <row hidden="1" r="837" s="1" spans="1:3">
+      <c r="A837" t="s"/>
+    </row>
     <row r="838" s="1" spans="1:3">
       <c r="A838" t="s">
         <v>1544</v>
@@ -38481,6 +40647,12 @@
         <v>2927</v>
       </c>
     </row>
+    <row hidden="1" r="839" s="1" spans="1:3">
+      <c r="A839" t="s"/>
+    </row>
+    <row hidden="1" r="840" s="1" spans="1:3">
+      <c r="A840" t="s"/>
+    </row>
     <row r="841" s="1" spans="1:3">
       <c r="A841" t="s">
         <v>1544</v>
@@ -38492,6 +40664,33 @@
         <v>2927</v>
       </c>
     </row>
+    <row hidden="1" r="842" s="1" spans="1:3">
+      <c r="A842" t="s"/>
+    </row>
+    <row hidden="1" r="843" s="1" spans="1:3">
+      <c r="A843" t="s"/>
+    </row>
+    <row hidden="1" r="844" s="1" spans="1:3">
+      <c r="A844" t="s"/>
+    </row>
+    <row hidden="1" r="845" s="1" spans="1:3">
+      <c r="A845" t="s"/>
+    </row>
+    <row hidden="1" r="846" s="1" spans="1:3">
+      <c r="A846" t="s"/>
+    </row>
+    <row hidden="1" r="847" s="1" spans="1:3">
+      <c r="A847" t="s"/>
+    </row>
+    <row hidden="1" r="848" s="1" spans="1:3">
+      <c r="A848" t="s"/>
+    </row>
+    <row hidden="1" r="849" s="1" spans="1:3">
+      <c r="A849" t="s"/>
+    </row>
+    <row hidden="1" r="850" s="1" spans="1:3">
+      <c r="A850" t="s"/>
+    </row>
     <row r="851" s="1" spans="1:3">
       <c r="A851" t="s">
         <v>1570</v>
@@ -38501,6 +40700,120 @@
       </c>
       <c r="C851" t="s"/>
     </row>
+    <row hidden="1" r="852" s="1" spans="1:3">
+      <c r="A852" t="s"/>
+    </row>
+    <row hidden="1" r="853" s="1" spans="1:3">
+      <c r="A853" t="s"/>
+    </row>
+    <row hidden="1" r="854" s="1" spans="1:3">
+      <c r="A854" t="s"/>
+    </row>
+    <row hidden="1" r="855" s="1" spans="1:3">
+      <c r="A855" t="s"/>
+    </row>
+    <row hidden="1" r="856" s="1" spans="1:3">
+      <c r="A856" t="s"/>
+    </row>
+    <row hidden="1" r="857" s="1" spans="1:3">
+      <c r="A857" t="s"/>
+    </row>
+    <row hidden="1" r="858" s="1" spans="1:3">
+      <c r="A858" t="s"/>
+    </row>
+    <row hidden="1" r="859" s="1" spans="1:3">
+      <c r="A859" t="s"/>
+    </row>
+    <row hidden="1" r="860" s="1" spans="1:3">
+      <c r="A860" t="s"/>
+    </row>
+    <row hidden="1" r="861" s="1" spans="1:3">
+      <c r="A861" t="s"/>
+    </row>
+    <row hidden="1" r="862" s="1" spans="1:3">
+      <c r="A862" t="s"/>
+    </row>
+    <row hidden="1" r="863" s="1" spans="1:3">
+      <c r="A863" t="s"/>
+    </row>
+    <row hidden="1" r="864" s="1" spans="1:3">
+      <c r="A864" t="s"/>
+    </row>
+    <row hidden="1" r="865" s="1" spans="1:3">
+      <c r="A865" t="s"/>
+    </row>
+    <row hidden="1" r="866" s="1" spans="1:3">
+      <c r="A866" t="s"/>
+    </row>
+    <row hidden="1" r="867" s="1" spans="1:3">
+      <c r="A867" t="s"/>
+    </row>
+    <row hidden="1" r="868" s="1" spans="1:3">
+      <c r="A868" t="s"/>
+    </row>
+    <row hidden="1" r="869" s="1" spans="1:3">
+      <c r="A869" t="s"/>
+    </row>
+    <row hidden="1" r="870" s="1" spans="1:3">
+      <c r="A870" t="s"/>
+    </row>
+    <row hidden="1" r="871" s="1" spans="1:3">
+      <c r="A871" t="s"/>
+    </row>
+    <row hidden="1" r="872" s="1" spans="1:3">
+      <c r="A872" t="s"/>
+    </row>
+    <row hidden="1" r="873" s="1" spans="1:3">
+      <c r="A873" t="s"/>
+    </row>
+    <row hidden="1" r="874" s="1" spans="1:3">
+      <c r="A874" t="s"/>
+    </row>
+    <row hidden="1" r="875" s="1" spans="1:3">
+      <c r="A875" t="s"/>
+    </row>
+    <row hidden="1" r="876" s="1" spans="1:3">
+      <c r="A876" t="s"/>
+    </row>
+    <row hidden="1" r="877" s="1" spans="1:3">
+      <c r="A877" t="s"/>
+    </row>
+    <row hidden="1" r="878" s="1" spans="1:3">
+      <c r="A878" t="s"/>
+    </row>
+    <row hidden="1" r="879" s="1" spans="1:3">
+      <c r="A879" t="s"/>
+    </row>
+    <row hidden="1" r="880" s="1" spans="1:3">
+      <c r="A880" t="s"/>
+    </row>
+    <row hidden="1" r="881" s="1" spans="1:3">
+      <c r="A881" t="s"/>
+    </row>
+    <row hidden="1" r="882" s="1" spans="1:3">
+      <c r="A882" t="s"/>
+    </row>
+    <row hidden="1" r="883" s="1" spans="1:3">
+      <c r="A883" t="s"/>
+    </row>
+    <row hidden="1" r="884" s="1" spans="1:3">
+      <c r="A884" t="s"/>
+    </row>
+    <row hidden="1" r="885" s="1" spans="1:3">
+      <c r="A885" t="s"/>
+    </row>
+    <row hidden="1" r="886" s="1" spans="1:3">
+      <c r="A886" t="s"/>
+    </row>
+    <row hidden="1" r="887" s="1" spans="1:3">
+      <c r="A887" t="s"/>
+    </row>
+    <row hidden="1" r="888" s="1" spans="1:3">
+      <c r="A888" t="s"/>
+    </row>
+    <row hidden="1" r="889" s="1" spans="1:3">
+      <c r="A889" t="s"/>
+    </row>
     <row r="890" s="1" spans="1:3">
       <c r="A890" t="s">
         <v>742</v>
@@ -38512,6 +40825,39 @@
         <v>2930</v>
       </c>
     </row>
+    <row hidden="1" r="891" s="1" spans="1:3">
+      <c r="A891" t="s"/>
+    </row>
+    <row hidden="1" r="892" s="1" spans="1:3">
+      <c r="A892" t="s"/>
+    </row>
+    <row hidden="1" r="893" s="1" spans="1:3">
+      <c r="A893" t="s"/>
+    </row>
+    <row hidden="1" r="894" s="1" spans="1:3">
+      <c r="A894" t="s"/>
+    </row>
+    <row hidden="1" r="895" s="1" spans="1:3">
+      <c r="A895" t="s"/>
+    </row>
+    <row hidden="1" r="896" s="1" spans="1:3">
+      <c r="A896" t="s"/>
+    </row>
+    <row hidden="1" r="897" s="1" spans="1:3">
+      <c r="A897" t="s"/>
+    </row>
+    <row hidden="1" r="898" s="1" spans="1:3">
+      <c r="A898" t="s"/>
+    </row>
+    <row hidden="1" r="899" s="1" spans="1:3">
+      <c r="A899" t="s"/>
+    </row>
+    <row hidden="1" r="900" s="1" spans="1:3">
+      <c r="A900" t="s"/>
+    </row>
+    <row hidden="1" r="901" s="1" spans="1:3">
+      <c r="A901" t="s"/>
+    </row>
     <row r="902" s="1" spans="1:3">
       <c r="A902" t="s">
         <v>1677</v>
@@ -38522,6 +40868,33 @@
       <c r="C902" t="s">
         <v>2932</v>
       </c>
+    </row>
+    <row hidden="1" r="903" s="1" spans="1:3">
+      <c r="A903" t="s"/>
+    </row>
+    <row hidden="1" r="904" s="1" spans="1:3">
+      <c r="A904" t="s"/>
+    </row>
+    <row hidden="1" r="905" s="1" spans="1:3">
+      <c r="A905" t="s"/>
+    </row>
+    <row hidden="1" r="906" s="1" spans="1:3">
+      <c r="A906" t="s"/>
+    </row>
+    <row hidden="1" r="907" s="1" spans="1:3">
+      <c r="A907" t="s"/>
+    </row>
+    <row hidden="1" r="908" s="1" spans="1:3">
+      <c r="A908" t="s"/>
+    </row>
+    <row hidden="1" r="909" s="1" spans="1:3">
+      <c r="A909" t="s"/>
+    </row>
+    <row hidden="1" r="910" s="1" spans="1:3">
+      <c r="A910" t="s"/>
+    </row>
+    <row hidden="1" r="911" s="1" spans="1:3">
+      <c r="A911" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
